--- a/data/pib/pib_nominal.xlsx
+++ b/data/pib/pib_nominal.xlsx
@@ -804,7 +804,7 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <v>322604.743</v>
+        <v>340875.412</v>
       </c>
       <c r="C2">
         <v>6390.392</v>
@@ -938,7 +938,7 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>348742.244</v>
+        <v>366521.882</v>
       </c>
       <c r="C3">
         <v>10865.974</v>
@@ -1072,7 +1072,7 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>373026.249</v>
+        <v>391405.435</v>
       </c>
       <c r="C4">
         <v>9041.862999999999</v>
@@ -1206,7 +1206,7 @@
         <v>47</v>
       </c>
       <c r="B5">
-        <v>420250.006</v>
+        <v>439900.349</v>
       </c>
       <c r="C5">
         <v>9444.861000000001</v>
@@ -1340,7 +1340,7 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>442904.203</v>
+        <v>464185.32</v>
       </c>
       <c r="C6">
         <v>8230.743</v>
@@ -1474,7 +1474,7 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>453509.358</v>
+        <v>468770.551</v>
       </c>
       <c r="C7">
         <v>9330.142</v>
@@ -1608,7 +1608,7 @@
         <v>50</v>
       </c>
       <c r="B8">
-        <v>422475.045</v>
+        <v>443726.419</v>
       </c>
       <c r="C8">
         <v>11433.872</v>
@@ -1742,7 +1742,7 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <v>442638.09</v>
+        <v>465345.565</v>
       </c>
       <c r="C9">
         <v>12053.354</v>
@@ -1876,7 +1876,7 @@
         <v>52</v>
       </c>
       <c r="B10">
-        <v>462686.12</v>
+        <v>483756.803</v>
       </c>
       <c r="C10">
         <v>11805.387</v>
@@ -2010,7 +2010,7 @@
         <v>53</v>
       </c>
       <c r="B11">
-        <v>507856.462</v>
+        <v>528590.156</v>
       </c>
       <c r="C11">
         <v>12583.181</v>
@@ -2144,7 +2144,7 @@
         <v>54</v>
       </c>
       <c r="B12">
-        <v>512567.307</v>
+        <v>538446.796</v>
       </c>
       <c r="C12">
         <v>14230.326</v>
@@ -2278,7 +2278,7 @@
         <v>55</v>
       </c>
       <c r="B13">
-        <v>553851.61</v>
+        <v>590350.789</v>
       </c>
       <c r="C13">
         <v>14392.932</v>
@@ -2412,7 +2412,7 @@
         <v>56</v>
       </c>
       <c r="B14">
-        <v>630244.889</v>
+        <v>673034.219</v>
       </c>
       <c r="C14">
         <v>17430.519</v>
@@ -2546,7 +2546,7 @@
         <v>57</v>
       </c>
       <c r="B15">
-        <v>703422.954</v>
+        <v>756993.37</v>
       </c>
       <c r="C15">
         <v>18453.614</v>
@@ -2680,7 +2680,7 @@
         <v>58</v>
       </c>
       <c r="B16">
-        <v>772601.525</v>
+        <v>823482.7070000001</v>
       </c>
       <c r="C16">
         <v>20868.568</v>
@@ -2814,7 +2814,7 @@
         <v>59</v>
       </c>
       <c r="B17">
-        <v>824068.035</v>
+        <v>878816.868</v>
       </c>
       <c r="C17">
         <v>21408.907</v>
@@ -2948,7 +2948,7 @@
         <v>60</v>
       </c>
       <c r="B18">
-        <v>872459.662</v>
+        <v>934135.458</v>
       </c>
       <c r="C18">
         <v>23694.394</v>
@@ -3082,7 +3082,7 @@
         <v>61</v>
       </c>
       <c r="B19">
-        <v>845347.921</v>
+        <v>910450.406</v>
       </c>
       <c r="C19">
         <v>21578.264</v>
@@ -3216,7 +3216,7 @@
         <v>62</v>
       </c>
       <c r="B20">
-        <v>957997.329</v>
+        <v>1029428.877</v>
       </c>
       <c r="C20">
         <v>22959.557</v>
@@ -3350,7 +3350,7 @@
         <v>63</v>
       </c>
       <c r="B21">
-        <v>1081600.162</v>
+        <v>1146704.23</v>
       </c>
       <c r="C21">
         <v>30928.338</v>
@@ -3484,7 +3484,7 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>48315.76</v>
+        <v>50335.238</v>
       </c>
       <c r="C22">
         <v>2132.719</v>
@@ -3618,7 +3618,7 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>55834.193</v>
+        <v>57905.59</v>
       </c>
       <c r="C23">
         <v>2330.218</v>
@@ -3752,7 +3752,7 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>62258.184</v>
+        <v>64577.059</v>
       </c>
       <c r="C24">
         <v>2854.941</v>
@@ -3886,7 +3886,7 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>69662.09600000001</v>
+        <v>72003.552</v>
       </c>
       <c r="C25">
         <v>2929.196</v>
@@ -4020,7 +4020,7 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>79298.04700000001</v>
+        <v>82198.573</v>
       </c>
       <c r="C26">
         <v>2736.358</v>
@@ -4154,7 +4154,7 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>88214.35400000001</v>
+        <v>90043.59699999999</v>
       </c>
       <c r="C27">
         <v>2634.977</v>
@@ -4288,7 +4288,7 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>87787.666</v>
+        <v>91381.152</v>
       </c>
       <c r="C28">
         <v>2704.071</v>
@@ -4422,7 +4422,7 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>92716.80100000001</v>
+        <v>96327.89999999999</v>
       </c>
       <c r="C29">
         <v>3333.507</v>
@@ -4556,7 +4556,7 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>100182.476</v>
+        <v>103431.775</v>
       </c>
       <c r="C30">
         <v>3441.045</v>
@@ -4690,7 +4690,7 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>106102.942</v>
+        <v>109111.435</v>
       </c>
       <c r="C31">
         <v>3487.439</v>
@@ -4824,7 +4824,7 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>107385.527</v>
+        <v>111282.2</v>
       </c>
       <c r="C32">
         <v>3652.069</v>
@@ -4958,7 +4958,7 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>113570.12</v>
+        <v>119365.527</v>
       </c>
       <c r="C33">
         <v>4433.421</v>
@@ -5092,7 +5092,7 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>125749.3</v>
+        <v>132961.394</v>
       </c>
       <c r="C34">
         <v>4843.794</v>
@@ -5226,7 +5226,7 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>139713.953</v>
+        <v>148321.323</v>
       </c>
       <c r="C35">
         <v>6015.423</v>
@@ -5360,7 +5360,7 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>155787.872</v>
+        <v>164180.136</v>
       </c>
       <c r="C36">
         <v>6037.415</v>
@@ -5494,7 +5494,7 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>175398.34</v>
+        <v>184618.103</v>
       </c>
       <c r="C37">
         <v>6351.325</v>
@@ -5628,7 +5628,7 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>176613.995</v>
+        <v>186633.016</v>
       </c>
       <c r="C38">
         <v>6714.09</v>
@@ -5762,7 +5762,7 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>155914.46</v>
+        <v>164758.921</v>
       </c>
       <c r="C39">
         <v>7267.73</v>
@@ -5896,7 +5896,7 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>183154.801</v>
+        <v>194781.4</v>
       </c>
       <c r="C40">
         <v>8759.206</v>
@@ -6030,7 +6030,7 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>207422.417</v>
+        <v>218404.832</v>
       </c>
       <c r="C41">
         <v>8720.973</v>
@@ -6164,7 +6164,7 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>314486.241</v>
+        <v>316831.218</v>
       </c>
       <c r="C42">
         <v>1626.281</v>
@@ -6298,7 +6298,7 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>434868.509</v>
+        <v>437084.483</v>
       </c>
       <c r="C43">
         <v>2111.32</v>
@@ -6432,7 +6432,7 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>522588.485</v>
+        <v>524829.514</v>
       </c>
       <c r="C44">
         <v>2401.024</v>
@@ -6566,7 +6566,7 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>585838.839</v>
+        <v>587855.443</v>
       </c>
       <c r="C45">
         <v>2713.495</v>
@@ -6700,7 +6700,7 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>632826.0209999999</v>
+        <v>635062.682</v>
       </c>
       <c r="C46">
         <v>2196.2</v>
@@ -6834,7 +6834,7 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>719038.583</v>
+        <v>720109.322</v>
       </c>
       <c r="C47">
         <v>2790.863</v>
@@ -6968,7 +6968,7 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>511927.449</v>
+        <v>514834.019</v>
       </c>
       <c r="C48">
         <v>2905.442</v>
@@ -7102,7 +7102,7 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>588859.122</v>
+        <v>591706.916</v>
       </c>
       <c r="C49">
         <v>3762.151</v>
@@ -7236,7 +7236,7 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>754859.161</v>
+        <v>757181.981</v>
       </c>
       <c r="C50">
         <v>3879.435</v>
@@ -7370,7 +7370,7 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>741483.167</v>
+        <v>743570.96</v>
       </c>
       <c r="C51">
         <v>3815.163</v>
@@ -7504,7 +7504,7 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>676393.9350000001</v>
+        <v>679681.201</v>
       </c>
       <c r="C52">
         <v>3681.611</v>
@@ -7638,7 +7638,7 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>678355.027</v>
+        <v>683220.094</v>
       </c>
       <c r="C53">
         <v>4354.283</v>
@@ -7772,7 +7772,7 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>452708.622</v>
+        <v>461914.659</v>
       </c>
       <c r="C54">
         <v>4945.483</v>
@@ -7906,7 +7906,7 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>429360.772</v>
+        <v>438869.639</v>
       </c>
       <c r="C55">
         <v>6067.564</v>
@@ -8040,7 +8040,7 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>507673.164</v>
+        <v>516198.928</v>
       </c>
       <c r="C56">
         <v>6001.387</v>
@@ -8174,7 +8174,7 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>555407.927</v>
+        <v>564591.056</v>
       </c>
       <c r="C57">
         <v>6495.615</v>
@@ -8308,7 +8308,7 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>630160.701</v>
+        <v>640750.221</v>
       </c>
       <c r="C58">
         <v>6532.653</v>
@@ -8442,7 +8442,7 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>456288.938</v>
+        <v>463194.36</v>
       </c>
       <c r="C59">
         <v>7440.07</v>
@@ -8576,7 +8576,7 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>472890.73</v>
+        <v>484418.41</v>
       </c>
       <c r="C60">
         <v>9438.370999999999</v>
@@ -8710,7 +8710,7 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>479666.458</v>
+        <v>489477.862</v>
       </c>
       <c r="C61">
         <v>9025.191000000001</v>
@@ -8844,7 +8844,7 @@
         <v>44</v>
       </c>
       <c r="B62">
-        <v>48077.476</v>
+        <v>49527.035</v>
       </c>
       <c r="C62">
         <v>2494.704</v>
@@ -8978,7 +8978,7 @@
         <v>45</v>
       </c>
       <c r="B63">
-        <v>51207.214</v>
+        <v>52500.288</v>
       </c>
       <c r="C63">
         <v>2704.098</v>
@@ -9112,7 +9112,7 @@
         <v>46</v>
       </c>
       <c r="B64">
-        <v>54248.102</v>
+        <v>55519.615</v>
       </c>
       <c r="C64">
         <v>2935.343</v>
@@ -9246,7 +9246,7 @@
         <v>47</v>
       </c>
       <c r="B65">
-        <v>60274.347</v>
+        <v>61473.883</v>
       </c>
       <c r="C65">
         <v>3198.034</v>
@@ -9380,7 +9380,7 @@
         <v>48</v>
       </c>
       <c r="B66">
-        <v>68125.466</v>
+        <v>69557.95</v>
       </c>
       <c r="C66">
         <v>3625.615</v>
@@ -9514,7 +9514,7 @@
         <v>49</v>
       </c>
       <c r="B67">
-        <v>74086.44</v>
+        <v>74484.889</v>
       </c>
       <c r="C67">
         <v>4140.54</v>
@@ -9648,7 +9648,7 @@
         <v>50</v>
       </c>
       <c r="B68">
-        <v>74360.147</v>
+        <v>76413.974</v>
       </c>
       <c r="C68">
         <v>3541.74</v>
@@ -9782,7 +9782,7 @@
         <v>51</v>
       </c>
       <c r="B69">
-        <v>81953.158</v>
+        <v>83940.999</v>
       </c>
       <c r="C69">
         <v>4051.933</v>
@@ -9916,7 +9916,7 @@
         <v>52</v>
       </c>
       <c r="B70">
-        <v>91018.58199999999</v>
+        <v>92708.856</v>
       </c>
       <c r="C70">
         <v>4484.173</v>
@@ -10050,7 +10050,7 @@
         <v>53</v>
       </c>
       <c r="B71">
-        <v>97479.56</v>
+        <v>98531.344</v>
       </c>
       <c r="C71">
         <v>3801.169</v>
@@ -10184,7 +10184,7 @@
         <v>54</v>
       </c>
       <c r="B72">
-        <v>100290.41</v>
+        <v>101858.269</v>
       </c>
       <c r="C72">
         <v>4188.011</v>
@@ -10318,7 +10318,7 @@
         <v>55</v>
       </c>
       <c r="B73">
-        <v>105090.812</v>
+        <v>107943.732</v>
       </c>
       <c r="C73">
         <v>4415.023</v>
@@ -10452,7 +10452,7 @@
         <v>56</v>
       </c>
       <c r="B74">
-        <v>113145.667</v>
+        <v>117089.827</v>
       </c>
       <c r="C74">
         <v>4484.694</v>
@@ -10586,7 +10586,7 @@
         <v>57</v>
       </c>
       <c r="B75">
-        <v>118979.455</v>
+        <v>124092.951</v>
       </c>
       <c r="C75">
         <v>5795.744</v>
@@ -10720,7 +10720,7 @@
         <v>58</v>
       </c>
       <c r="B76">
-        <v>135970.742</v>
+        <v>140155.548</v>
       </c>
       <c r="C76">
         <v>6380.768</v>
@@ -10854,7 +10854,7 @@
         <v>59</v>
       </c>
       <c r="B77">
-        <v>149814.724</v>
+        <v>153808.394</v>
       </c>
       <c r="C77">
         <v>7344.258</v>
@@ -10988,7 +10988,7 @@
         <v>60</v>
       </c>
       <c r="B78">
-        <v>164501.455</v>
+        <v>169735.936</v>
       </c>
       <c r="C78">
         <v>7457.925</v>
@@ -11122,7 +11122,7 @@
         <v>61</v>
       </c>
       <c r="B79">
-        <v>155944.136</v>
+        <v>161815.61</v>
       </c>
       <c r="C79">
         <v>8089.554</v>
@@ -11256,7 +11256,7 @@
         <v>62</v>
       </c>
       <c r="B80">
-        <v>162639.248</v>
+        <v>169079.637</v>
       </c>
       <c r="C80">
         <v>8887.977000000001</v>
@@ -11390,7 +11390,7 @@
         <v>63</v>
       </c>
       <c r="B81">
-        <v>177560.609</v>
+        <v>183104.102</v>
       </c>
       <c r="C81">
         <v>11062.11</v>
@@ -11524,7 +11524,7 @@
         <v>44</v>
       </c>
       <c r="B82">
-        <v>119385.981</v>
+        <v>124027.46</v>
       </c>
       <c r="C82">
         <v>6700.031</v>
@@ -11658,7 +11658,7 @@
         <v>45</v>
       </c>
       <c r="B83">
-        <v>131477.06</v>
+        <v>136072.902</v>
       </c>
       <c r="C83">
         <v>6623.465</v>
@@ -11792,7 +11792,7 @@
         <v>46</v>
       </c>
       <c r="B84">
-        <v>140550.394</v>
+        <v>145247.128</v>
       </c>
       <c r="C84">
         <v>7503.521</v>
@@ -11926,7 +11926,7 @@
         <v>47</v>
       </c>
       <c r="B85">
-        <v>149795.583</v>
+        <v>154085.229</v>
       </c>
       <c r="C85">
         <v>7428.248</v>
@@ -12060,7 +12060,7 @@
         <v>48</v>
       </c>
       <c r="B86">
-        <v>163766.76</v>
+        <v>168547.084</v>
       </c>
       <c r="C86">
         <v>9166.129999999999</v>
@@ -12194,7 +12194,7 @@
         <v>49</v>
       </c>
       <c r="B87">
-        <v>171599.427</v>
+        <v>174634.595</v>
       </c>
       <c r="C87">
         <v>8890.312</v>
@@ -12328,7 +12328,7 @@
         <v>50</v>
       </c>
       <c r="B88">
-        <v>180986.577</v>
+        <v>187150.473</v>
       </c>
       <c r="C88">
         <v>8608.941000000001</v>
@@ -12462,7 +12462,7 @@
         <v>51</v>
       </c>
       <c r="B89">
-        <v>193749.645</v>
+        <v>199598.086</v>
       </c>
       <c r="C89">
         <v>9535.665999999999</v>
@@ -12596,7 +12596,7 @@
         <v>52</v>
       </c>
       <c r="B90">
-        <v>203992.039</v>
+        <v>209210.943</v>
       </c>
       <c r="C90">
         <v>10668.075</v>
@@ -12730,7 +12730,7 @@
         <v>53</v>
       </c>
       <c r="B91">
-        <v>218844.028</v>
+        <v>223043.258</v>
       </c>
       <c r="C91">
         <v>10612.898</v>
@@ -12864,7 +12864,7 @@
         <v>54</v>
       </c>
       <c r="B92">
-        <v>228735.396</v>
+        <v>234827.04</v>
       </c>
       <c r="C92">
         <v>10247.857</v>
@@ -12998,7 +12998,7 @@
         <v>55</v>
       </c>
       <c r="B93">
-        <v>250954.053</v>
+        <v>261210.581</v>
       </c>
       <c r="C93">
         <v>11817.105</v>
@@ -13132,7 +13132,7 @@
         <v>56</v>
       </c>
       <c r="B94">
-        <v>259218.567</v>
+        <v>271073.848</v>
       </c>
       <c r="C94">
         <v>11651.741</v>
@@ -13266,7 +13266,7 @@
         <v>57</v>
       </c>
       <c r="B95">
-        <v>271649.619</v>
+        <v>285110.792</v>
       </c>
       <c r="C95">
         <v>14286.549</v>
@@ -13400,7 +13400,7 @@
         <v>58</v>
       </c>
       <c r="B96">
-        <v>284700.833</v>
+        <v>296004.206</v>
       </c>
       <c r="C96">
         <v>15258.661</v>
@@ -13534,7 +13534,7 @@
         <v>59</v>
       </c>
       <c r="B97">
-        <v>305975.991</v>
+        <v>317844.942</v>
       </c>
       <c r="C97">
         <v>15461.676</v>
@@ -13668,7 +13668,7 @@
         <v>60</v>
       </c>
       <c r="B98">
-        <v>316006.108</v>
+        <v>329976.846</v>
       </c>
       <c r="C98">
         <v>15384.986</v>
@@ -13802,7 +13802,7 @@
         <v>61</v>
       </c>
       <c r="B99">
-        <v>306823.777</v>
+        <v>321201.635</v>
       </c>
       <c r="C99">
         <v>18112.702</v>
@@ -13936,7 +13936,7 @@
         <v>62</v>
       </c>
       <c r="B100">
-        <v>333116.854</v>
+        <v>348114.287</v>
       </c>
       <c r="C100">
         <v>19884.828</v>
@@ -14070,7 +14070,7 @@
         <v>63</v>
       </c>
       <c r="B101">
-        <v>370205.087</v>
+        <v>381922.345</v>
       </c>
       <c r="C101">
         <v>21455.463</v>
@@ -14204,7 +14204,7 @@
         <v>44</v>
       </c>
       <c r="B102">
-        <v>542191.826</v>
+        <v>572336.444</v>
       </c>
       <c r="C102">
         <v>28192.444</v>
@@ -14338,7 +14338,7 @@
         <v>45</v>
       </c>
       <c r="B103">
-        <v>592156.6679999999</v>
+        <v>622182.667</v>
       </c>
       <c r="C103">
         <v>31731.22</v>
@@ -14472,7 +14472,7 @@
         <v>46</v>
       </c>
       <c r="B104">
-        <v>632241.361</v>
+        <v>663317.972</v>
       </c>
       <c r="C104">
         <v>28798.983</v>
@@ -14606,7 +14606,7 @@
         <v>47</v>
       </c>
       <c r="B105">
-        <v>693778.863</v>
+        <v>725304.348</v>
       </c>
       <c r="C105">
         <v>34025.548</v>
@@ -14740,7 +14740,7 @@
         <v>48</v>
       </c>
       <c r="B106">
-        <v>754444.772</v>
+        <v>788334.513</v>
       </c>
       <c r="C106">
         <v>36263.03</v>
@@ -14874,7 +14874,7 @@
         <v>49</v>
       </c>
       <c r="B107">
-        <v>818421.947</v>
+        <v>845821.414</v>
       </c>
       <c r="C107">
         <v>39197.565</v>
@@ -15008,7 +15008,7 @@
         <v>50</v>
       </c>
       <c r="B108">
-        <v>812093.784</v>
+        <v>852862.11</v>
       </c>
       <c r="C108">
         <v>37045.506</v>
@@ -15142,7 +15142,7 @@
         <v>51</v>
       </c>
       <c r="B109">
-        <v>894893.654</v>
+        <v>939738.3590000001</v>
       </c>
       <c r="C109">
         <v>44614.222</v>
@@ -15276,7 +15276,7 @@
         <v>52</v>
       </c>
       <c r="B110">
-        <v>965384.214</v>
+        <v>1005824.234</v>
       </c>
       <c r="C110">
         <v>45699.55</v>
@@ -15410,7 +15410,7 @@
         <v>53</v>
       </c>
       <c r="B111">
-        <v>1061115.788</v>
+        <v>1101848.484</v>
       </c>
       <c r="C111">
         <v>54789.208</v>
@@ -15544,7 +15544,7 @@
         <v>54</v>
       </c>
       <c r="B112">
-        <v>1108713.431</v>
+        <v>1162392.173</v>
       </c>
       <c r="C112">
         <v>56988.015</v>
@@ -15678,7 +15678,7 @@
         <v>55</v>
       </c>
       <c r="B113">
-        <v>1183922.424</v>
+        <v>1263652.823</v>
       </c>
       <c r="C113">
         <v>67366.67600000001</v>
@@ -15812,7 +15812,7 @@
         <v>56</v>
       </c>
       <c r="B114">
-        <v>1286061.956</v>
+        <v>1379335.029</v>
       </c>
       <c r="C114">
         <v>68951.25900000001</v>
@@ -15946,7 +15946,7 @@
         <v>57</v>
       </c>
       <c r="B115">
-        <v>1419240.83</v>
+        <v>1524668.005</v>
       </c>
       <c r="C115">
         <v>74423.478</v>
@@ -16080,7 +16080,7 @@
         <v>58</v>
       </c>
       <c r="B116">
-        <v>1534158.006</v>
+        <v>1637501.433</v>
       </c>
       <c r="C116">
         <v>86841.27800000001</v>
@@ -16214,7 +16214,7 @@
         <v>59</v>
       </c>
       <c r="B117">
-        <v>1643838.703</v>
+        <v>1754179.51</v>
       </c>
       <c r="C117">
         <v>98909.243</v>
@@ -16348,7 +16348,7 @@
         <v>60</v>
       </c>
       <c r="B118">
-        <v>1731137.759</v>
+        <v>1855652.793</v>
       </c>
       <c r="C118">
         <v>110598.819</v>
@@ -16482,7 +16482,7 @@
         <v>61</v>
       </c>
       <c r="B119">
-        <v>1665712.765</v>
+        <v>1790963.351</v>
       </c>
       <c r="C119">
         <v>117379.461</v>
@@ -16616,7 +16616,7 @@
         <v>62</v>
       </c>
       <c r="B120">
-        <v>1829578.734</v>
+        <v>1963904.783</v>
       </c>
       <c r="C120">
         <v>130955.293</v>
@@ -16750,7 +16750,7 @@
         <v>63</v>
       </c>
       <c r="B121">
-        <v>2085115.987</v>
+        <v>2212640.428</v>
       </c>
       <c r="C121">
         <v>158680.965</v>
@@ -16884,7 +16884,7 @@
         <v>44</v>
       </c>
       <c r="B122">
-        <v>49310.296</v>
+        <v>51533.444</v>
       </c>
       <c r="C122">
         <v>3513.637</v>
@@ -17018,7 +17018,7 @@
         <v>45</v>
       </c>
       <c r="B123">
-        <v>60432.45</v>
+        <v>62606.107</v>
       </c>
       <c r="C123">
         <v>4211.378</v>
@@ -17152,7 +17152,7 @@
         <v>46</v>
       </c>
       <c r="B124">
-        <v>66790.995</v>
+        <v>69128.01700000001</v>
       </c>
       <c r="C124">
         <v>4474.529</v>
@@ -17286,7 +17286,7 @@
         <v>47</v>
       </c>
       <c r="B125">
-        <v>70184.36199999999</v>
+        <v>72451.633</v>
       </c>
       <c r="C125">
         <v>4782.236</v>
@@ -17420,7 +17420,7 @@
         <v>48</v>
       </c>
       <c r="B126">
-        <v>73294.541</v>
+        <v>75566.569</v>
       </c>
       <c r="C126">
         <v>5494.688</v>
@@ -17554,7 +17554,7 @@
         <v>49</v>
       </c>
       <c r="B127">
-        <v>84414.44100000001</v>
+        <v>85718.626</v>
       </c>
       <c r="C127">
         <v>6439.875</v>
@@ -17688,7 +17688,7 @@
         <v>50</v>
       </c>
       <c r="B128">
-        <v>83629.711</v>
+        <v>86660.158</v>
       </c>
       <c r="C128">
         <v>5874.66</v>
@@ -17822,7 +17822,7 @@
         <v>51</v>
       </c>
       <c r="B129">
-        <v>90170.027</v>
+        <v>93322.734</v>
       </c>
       <c r="C129">
         <v>6626.672</v>
@@ -17956,7 +17956,7 @@
         <v>52</v>
       </c>
       <c r="B130">
-        <v>97500.683</v>
+        <v>100433.852</v>
       </c>
       <c r="C130">
         <v>8067.867</v>
@@ -18090,7 +18090,7 @@
         <v>53</v>
       </c>
       <c r="B131">
-        <v>103109.521</v>
+        <v>105542.946</v>
       </c>
       <c r="C131">
         <v>8120.802</v>
@@ -18224,7 +18224,7 @@
         <v>54</v>
       </c>
       <c r="B132">
-        <v>106685.216</v>
+        <v>110302.514</v>
       </c>
       <c r="C132">
         <v>7524.733</v>
@@ -18358,7 +18358,7 @@
         <v>55</v>
       </c>
       <c r="B133">
-        <v>110712.609</v>
+        <v>115517.759</v>
       </c>
       <c r="C133">
         <v>7029.458</v>
@@ -18492,7 +18492,7 @@
         <v>56</v>
       </c>
       <c r="B134">
-        <v>116606.618</v>
+        <v>122674.407</v>
       </c>
       <c r="C134">
         <v>7684.562</v>
@@ -18626,7 +18626,7 @@
         <v>57</v>
       </c>
       <c r="B135">
-        <v>127956.245</v>
+        <v>135126.596</v>
       </c>
       <c r="C135">
         <v>9168.610000000001</v>
@@ -18760,7 +18760,7 @@
         <v>58</v>
       </c>
       <c r="B136">
-        <v>139485.213</v>
+        <v>146157.277</v>
       </c>
       <c r="C136">
         <v>10430.663</v>
@@ -18894,7 +18894,7 @@
         <v>59</v>
       </c>
       <c r="B137">
-        <v>148674.519</v>
+        <v>155757.538</v>
       </c>
       <c r="C137">
         <v>10841.588</v>
@@ -19028,7 +19028,7 @@
         <v>60</v>
       </c>
       <c r="B138">
-        <v>156641.666</v>
+        <v>164995.867</v>
       </c>
       <c r="C138">
         <v>12884.369</v>
@@ -19162,7 +19162,7 @@
         <v>61</v>
       </c>
       <c r="B139">
-        <v>147288.256</v>
+        <v>155388.161</v>
       </c>
       <c r="C139">
         <v>13873.528</v>
@@ -19296,7 +19296,7 @@
         <v>62</v>
       </c>
       <c r="B140">
-        <v>171967.367</v>
+        <v>181263.776</v>
       </c>
       <c r="C140">
         <v>15797.531</v>
@@ -19430,7 +19430,7 @@
         <v>63</v>
       </c>
       <c r="B141">
-        <v>196391.242</v>
+        <v>205404.047</v>
       </c>
       <c r="C141">
         <v>18079.835</v>
@@ -19564,7 +19564,7 @@
         <v>44</v>
       </c>
       <c r="B142">
-        <v>133422.898</v>
+        <v>138972.968</v>
       </c>
       <c r="C142">
         <v>8487.379000000001</v>
@@ -19698,7 +19698,7 @@
         <v>45</v>
       </c>
       <c r="B143">
-        <v>152188.017</v>
+        <v>157600.34</v>
       </c>
       <c r="C143">
         <v>7633.989</v>
@@ -19832,7 +19832,7 @@
         <v>46</v>
       </c>
       <c r="B144">
-        <v>149249.505</v>
+        <v>154393.684</v>
       </c>
       <c r="C144">
         <v>7415.203</v>
@@ -19966,7 +19966,7 @@
         <v>47</v>
       </c>
       <c r="B145">
-        <v>183184.051</v>
+        <v>188402.769</v>
       </c>
       <c r="C145">
         <v>8754.785</v>
@@ -20100,7 +20100,7 @@
         <v>48</v>
       </c>
       <c r="B146">
-        <v>184462.452</v>
+        <v>190339.935</v>
       </c>
       <c r="C146">
         <v>10151.988</v>
@@ -20234,7 +20234,7 @@
         <v>49</v>
       </c>
       <c r="B147">
-        <v>205392.962</v>
+        <v>209040.268</v>
       </c>
       <c r="C147">
         <v>9746.724</v>
@@ -20368,7 +20368,7 @@
         <v>50</v>
       </c>
       <c r="B148">
-        <v>203460.714</v>
+        <v>210853.993</v>
       </c>
       <c r="C148">
         <v>10594.477</v>
@@ -20502,7 +20502,7 @@
         <v>51</v>
       </c>
       <c r="B149">
-        <v>222765.387</v>
+        <v>229199.933</v>
       </c>
       <c r="C149">
         <v>11579.894</v>
@@ -20636,7 +20636,7 @@
         <v>52</v>
       </c>
       <c r="B150">
-        <v>239727.424</v>
+        <v>245436.08</v>
       </c>
       <c r="C150">
         <v>11999.967</v>
@@ -20770,7 +20770,7 @@
         <v>53</v>
       </c>
       <c r="B151">
-        <v>264537.285</v>
+        <v>269068.665</v>
       </c>
       <c r="C151">
         <v>12464.598</v>
@@ -20904,7 +20904,7 @@
         <v>54</v>
       </c>
       <c r="B152">
-        <v>256985.876</v>
+        <v>264462.188</v>
       </c>
       <c r="C152">
         <v>12316.029</v>
@@ -21038,7 +21038,7 @@
         <v>55</v>
       </c>
       <c r="B153">
-        <v>275461.718</v>
+        <v>286397.567</v>
       </c>
       <c r="C153">
         <v>12490.385</v>
@@ -21172,7 +21172,7 @@
         <v>56</v>
       </c>
       <c r="B154">
-        <v>300542.97</v>
+        <v>314532.076</v>
       </c>
       <c r="C154">
         <v>13030.702</v>
@@ -21306,7 +21306,7 @@
         <v>57</v>
       </c>
       <c r="B155">
-        <v>296555.877</v>
+        <v>312862.956</v>
       </c>
       <c r="C155">
         <v>15318.631</v>
@@ -21440,7 +21440,7 @@
         <v>58</v>
       </c>
       <c r="B156">
-        <v>319341.533</v>
+        <v>333649.263</v>
       </c>
       <c r="C156">
         <v>16200.849</v>
@@ -21574,7 +21574,7 @@
         <v>59</v>
       </c>
       <c r="B157">
-        <v>366942.379</v>
+        <v>383159.646</v>
       </c>
       <c r="C157">
         <v>17238.302</v>
@@ -21708,7 +21708,7 @@
         <v>60</v>
       </c>
       <c r="B158">
-        <v>361136.328</v>
+        <v>379154.264</v>
       </c>
       <c r="C158">
         <v>17369.952</v>
@@ -21842,7 +21842,7 @@
         <v>61</v>
       </c>
       <c r="B159">
-        <v>364290.727</v>
+        <v>383453.475</v>
       </c>
       <c r="C159">
         <v>19321.879</v>
@@ -21976,7 +21976,7 @@
         <v>62</v>
       </c>
       <c r="B160">
-        <v>412535.262</v>
+        <v>432703.282</v>
       </c>
       <c r="C160">
         <v>21425.604</v>
@@ -22110,7 +22110,7 @@
         <v>63</v>
       </c>
       <c r="B161">
-        <v>485325.238</v>
+        <v>503593.314</v>
       </c>
       <c r="C161">
         <v>22554.157</v>
@@ -22244,7 +22244,7 @@
         <v>44</v>
       </c>
       <c r="B162">
-        <v>98719.522</v>
+        <v>105216.723</v>
       </c>
       <c r="C162">
         <v>934.799</v>
@@ -22378,7 +22378,7 @@
         <v>45</v>
       </c>
       <c r="B163">
-        <v>112134.107</v>
+        <v>118876.065</v>
       </c>
       <c r="C163">
         <v>1033.245</v>
@@ -22512,7 +22512,7 @@
         <v>46</v>
       </c>
       <c r="B164">
-        <v>120949.344</v>
+        <v>127367.157</v>
       </c>
       <c r="C164">
         <v>1267.045</v>
@@ -22646,7 +22646,7 @@
         <v>47</v>
       </c>
       <c r="B165">
-        <v>135479.194</v>
+        <v>142281.052</v>
       </c>
       <c r="C165">
         <v>1366.483</v>
@@ -22780,7 +22780,7 @@
         <v>48</v>
       </c>
       <c r="B166">
-        <v>153067.432</v>
+        <v>161194.255</v>
       </c>
       <c r="C166">
         <v>1135.867</v>
@@ -22914,7 +22914,7 @@
         <v>49</v>
       </c>
       <c r="B167">
-        <v>169654.66</v>
+        <v>176787.643</v>
       </c>
       <c r="C167">
         <v>913.343</v>
@@ -23048,7 +23048,7 @@
         <v>50</v>
       </c>
       <c r="B168">
-        <v>163546.502</v>
+        <v>172950.073</v>
       </c>
       <c r="C168">
         <v>1226.129</v>
@@ -23182,7 +23182,7 @@
         <v>51</v>
       </c>
       <c r="B169">
-        <v>176053.175</v>
+        <v>186669.586</v>
       </c>
       <c r="C169">
         <v>2054.563</v>
@@ -23316,7 +23316,7 @@
         <v>52</v>
       </c>
       <c r="B170">
-        <v>187706.072</v>
+        <v>197216.915</v>
       </c>
       <c r="C170">
         <v>2071.059</v>
@@ -23450,7 +23450,7 @@
         <v>53</v>
       </c>
       <c r="B171">
-        <v>208033.555</v>
+        <v>218328.268</v>
       </c>
       <c r="C171">
         <v>1754.767</v>
@@ -23584,7 +23584,7 @@
         <v>54</v>
       </c>
       <c r="B172">
-        <v>217508.689</v>
+        <v>229985.219</v>
       </c>
       <c r="C172">
         <v>1910.431</v>
@@ -23718,7 +23718,7 @@
         <v>55</v>
       </c>
       <c r="B173">
-        <v>237289.208</v>
+        <v>254909.068</v>
       </c>
       <c r="C173">
         <v>1718.123</v>
@@ -23852,7 +23852,7 @@
         <v>56</v>
       </c>
       <c r="B174">
-        <v>259772.568</v>
+        <v>280488.453</v>
       </c>
       <c r="C174">
         <v>1939.195</v>
@@ -23986,7 +23986,7 @@
         <v>57</v>
       </c>
       <c r="B175">
-        <v>293948.865</v>
+        <v>318997.239</v>
       </c>
       <c r="C175">
         <v>2235.515</v>
@@ -24120,7 +24120,7 @@
         <v>58</v>
       </c>
       <c r="B176">
-        <v>320681.415</v>
+        <v>345319.747</v>
       </c>
       <c r="C176">
         <v>2525.177</v>
@@ -24254,7 +24254,7 @@
         <v>59</v>
       </c>
       <c r="B177">
-        <v>350782.493</v>
+        <v>377340.667</v>
       </c>
       <c r="C177">
         <v>3349.049</v>
@@ -24388,7 +24388,7 @@
         <v>60</v>
       </c>
       <c r="B178">
-        <v>368669.566</v>
+        <v>397073.364</v>
       </c>
       <c r="C178">
         <v>2861.655</v>
@@ -24522,7 +24522,7 @@
         <v>61</v>
       </c>
       <c r="B179">
-        <v>301494.219</v>
+        <v>323684.148</v>
       </c>
       <c r="C179">
         <v>2936.631</v>
@@ -24656,7 +24656,7 @@
         <v>62</v>
       </c>
       <c r="B180">
-        <v>346752.757</v>
+        <v>375060.301</v>
       </c>
       <c r="C180">
         <v>4304.302</v>
@@ -24790,7 +24790,7 @@
         <v>63</v>
       </c>
       <c r="B181">
-        <v>401125.6</v>
+        <v>430305.734</v>
       </c>
       <c r="C181">
         <v>4593.206</v>
@@ -24924,7 +24924,7 @@
         <v>44</v>
       </c>
       <c r="B182">
-        <v>169525.009</v>
+        <v>176642.8</v>
       </c>
       <c r="C182">
         <v>15208.603</v>
@@ -25058,7 +25058,7 @@
         <v>45</v>
       </c>
       <c r="B183">
-        <v>197448.066</v>
+        <v>204213.704</v>
       </c>
       <c r="C183">
         <v>23303.433</v>
@@ -25192,7 +25192,7 @@
         <v>46</v>
       </c>
       <c r="B184">
-        <v>204055.264</v>
+        <v>210873.016</v>
       </c>
       <c r="C184">
         <v>18847.905</v>
@@ -25326,7 +25326,7 @@
         <v>47</v>
       </c>
       <c r="B185">
-        <v>220846.42</v>
+        <v>227331.673</v>
       </c>
       <c r="C185">
         <v>22123.94</v>
@@ -25460,7 +25460,7 @@
         <v>48</v>
       </c>
       <c r="B186">
-        <v>250259.111</v>
+        <v>257424.364</v>
       </c>
       <c r="C186">
         <v>29963.442</v>
@@ -25594,7 +25594,7 @@
         <v>49</v>
       </c>
       <c r="B187">
-        <v>282577.48</v>
+        <v>286738.682</v>
       </c>
       <c r="C187">
         <v>32993.639</v>
@@ -25728,7 +25728,7 @@
         <v>50</v>
       </c>
       <c r="B188">
-        <v>290245.812</v>
+        <v>299460.527</v>
       </c>
       <c r="C188">
         <v>32020.568</v>
@@ -25862,7 +25862,7 @@
         <v>51</v>
       </c>
       <c r="B189">
-        <v>301913.878</v>
+        <v>311112.265</v>
       </c>
       <c r="C189">
         <v>27047.556</v>
@@ -25996,7 +25996,7 @@
         <v>52</v>
       </c>
       <c r="B190">
-        <v>324008.499</v>
+        <v>331830.903</v>
       </c>
       <c r="C190">
         <v>29740.287</v>
@@ -26130,7 +26130,7 @@
         <v>53</v>
       </c>
       <c r="B191">
-        <v>353211.228</v>
+        <v>359979.665</v>
       </c>
       <c r="C191">
         <v>36586.325</v>
@@ -26264,7 +26264,7 @@
         <v>54</v>
       </c>
       <c r="B192">
-        <v>360355.592</v>
+        <v>370401.796</v>
       </c>
       <c r="C192">
         <v>37284.211</v>
@@ -26398,7 +26398,7 @@
         <v>55</v>
       </c>
       <c r="B193">
-        <v>366524.986</v>
+        <v>381361.529</v>
       </c>
       <c r="C193">
         <v>36942.195</v>
@@ -26532,7 +26532,7 @@
         <v>56</v>
       </c>
       <c r="B194">
-        <v>396837.477</v>
+        <v>415580.211</v>
       </c>
       <c r="C194">
         <v>43735.23</v>
@@ -26666,7 +26666,7 @@
         <v>57</v>
       </c>
       <c r="B195">
-        <v>441704.585</v>
+        <v>463631.611</v>
       </c>
       <c r="C195">
         <v>52455.763</v>
@@ -26800,7 +26800,7 @@
         <v>58</v>
       </c>
       <c r="B196">
-        <v>475648.779</v>
+        <v>496177.119</v>
       </c>
       <c r="C196">
         <v>50902.119</v>
@@ -26934,7 +26934,7 @@
         <v>59</v>
       </c>
       <c r="B197">
-        <v>505706.288</v>
+        <v>527714.061</v>
       </c>
       <c r="C197">
         <v>55995.981</v>
@@ -27068,7 +27068,7 @@
         <v>60</v>
       </c>
       <c r="B198">
-        <v>528936.8909999999</v>
+        <v>553883.246</v>
       </c>
       <c r="C198">
         <v>65488.466</v>
@@ -27202,7 +27202,7 @@
         <v>61</v>
       </c>
       <c r="B199">
-        <v>515381.973</v>
+        <v>540994.029</v>
       </c>
       <c r="C199">
         <v>67472.041</v>
@@ -27336,7 +27336,7 @@
         <v>62</v>
       </c>
       <c r="B200">
-        <v>575590.458</v>
+        <v>603546.888</v>
       </c>
       <c r="C200">
         <v>79375.53</v>
@@ -27470,7 +27470,7 @@
         <v>63</v>
       </c>
       <c r="B201">
-        <v>638547.247</v>
+        <v>662088.045</v>
       </c>
       <c r="C201">
         <v>81829.629</v>
@@ -27604,7 +27604,7 @@
         <v>44</v>
       </c>
       <c r="B202">
-        <v>212192.291</v>
+        <v>222618.231</v>
       </c>
       <c r="C202">
         <v>14428.857</v>
@@ -27738,7 +27738,7 @@
         <v>45</v>
       </c>
       <c r="B203">
-        <v>237900.461</v>
+        <v>248195.243</v>
       </c>
       <c r="C203">
         <v>13722.637</v>
@@ -27872,7 +27872,7 @@
         <v>46</v>
       </c>
       <c r="B204">
-        <v>265462.587</v>
+        <v>276035.344</v>
       </c>
       <c r="C204">
         <v>16401.894</v>
@@ -28006,7 +28006,7 @@
         <v>47</v>
       </c>
       <c r="B205">
-        <v>308632.214</v>
+        <v>320263.434</v>
       </c>
       <c r="C205">
         <v>16541.529</v>
@@ -28140,7 +28140,7 @@
         <v>48</v>
       </c>
       <c r="B206">
-        <v>336528.643</v>
+        <v>349280.153</v>
       </c>
       <c r="C206">
         <v>19824.357</v>
@@ -28274,7 +28274,7 @@
         <v>49</v>
       </c>
       <c r="B207">
-        <v>362530.868</v>
+        <v>371859.864</v>
       </c>
       <c r="C207">
         <v>24622.314</v>
@@ -28408,7 +28408,7 @@
         <v>50</v>
       </c>
       <c r="B208">
-        <v>354950.274</v>
+        <v>369690.735</v>
       </c>
       <c r="C208">
         <v>25605.908</v>
@@ -28542,7 +28542,7 @@
         <v>51</v>
       </c>
       <c r="B209">
-        <v>377918.274</v>
+        <v>393453.306</v>
       </c>
       <c r="C209">
         <v>24965.776</v>
@@ -28676,7 +28676,7 @@
         <v>52</v>
       </c>
       <c r="B210">
-        <v>437169.285</v>
+        <v>451674.797</v>
       </c>
       <c r="C210">
         <v>26796.201</v>
@@ -28810,7 +28810,7 @@
         <v>53</v>
       </c>
       <c r="B211">
-        <v>481981.564</v>
+        <v>495186.114</v>
       </c>
       <c r="C211">
         <v>31230.877</v>
@@ -28944,7 +28944,7 @@
         <v>54</v>
       </c>
       <c r="B212">
-        <v>504127.834</v>
+        <v>522719.705</v>
       </c>
       <c r="C212">
         <v>30798.428</v>
@@ -29078,7 +29078,7 @@
         <v>55</v>
       </c>
       <c r="B213">
-        <v>524148.492</v>
+        <v>550140.622</v>
       </c>
       <c r="C213">
         <v>32139.981</v>
@@ -29212,7 +29212,7 @@
         <v>56</v>
       </c>
       <c r="B214">
-        <v>581513.55</v>
+        <v>614260.758</v>
       </c>
       <c r="C214">
         <v>36837.623</v>
@@ -29346,7 +29346,7 @@
         <v>57</v>
       </c>
       <c r="B215">
-        <v>656783.557</v>
+        <v>697395.925</v>
       </c>
       <c r="C215">
         <v>40528.288</v>
@@ -29480,7 +29480,7 @@
         <v>58</v>
       </c>
       <c r="B216">
-        <v>708438.122</v>
+        <v>745562.811</v>
       </c>
       <c r="C216">
         <v>47724.363</v>
@@ -29614,7 +29614,7 @@
         <v>59</v>
       </c>
       <c r="B217">
-        <v>743562.51</v>
+        <v>782097.7389999999</v>
       </c>
       <c r="C217">
         <v>50921.477</v>
@@ -29748,7 +29748,7 @@
         <v>60</v>
       </c>
       <c r="B218">
-        <v>760788.594</v>
+        <v>803905.605</v>
       </c>
       <c r="C218">
         <v>53184.733</v>
@@ -29882,7 +29882,7 @@
         <v>61</v>
       </c>
       <c r="B219">
-        <v>777269.531</v>
+        <v>821763.304</v>
       </c>
       <c r="C219">
         <v>58163.94</v>
@@ -30016,7 +30016,7 @@
         <v>62</v>
       </c>
       <c r="B220">
-        <v>877494.074</v>
+        <v>927913.699</v>
       </c>
       <c r="C220">
         <v>61915.98</v>
@@ -30150,7 +30150,7 @@
         <v>63</v>
       </c>
       <c r="B221">
-        <v>972225.368</v>
+        <v>1019812.22</v>
       </c>
       <c r="C221">
         <v>75492.344</v>
@@ -30284,7 +30284,7 @@
         <v>44</v>
       </c>
       <c r="B222">
-        <v>373920.21</v>
+        <v>389490.253</v>
       </c>
       <c r="C222">
         <v>24208.548</v>
@@ -30418,7 +30418,7 @@
         <v>45</v>
       </c>
       <c r="B223">
-        <v>429566.246</v>
+        <v>444424.018</v>
       </c>
       <c r="C223">
         <v>24626.929</v>
@@ -30552,7 +30552,7 @@
         <v>46</v>
       </c>
       <c r="B224">
-        <v>452551.57</v>
+        <v>466457.751</v>
       </c>
       <c r="C224">
         <v>24153.64</v>
@@ -30686,7 +30686,7 @@
         <v>47</v>
       </c>
       <c r="B225">
-        <v>523138.137</v>
+        <v>536327.6679999999</v>
       </c>
       <c r="C225">
         <v>25765.237</v>
@@ -30820,7 +30820,7 @@
         <v>48</v>
       </c>
       <c r="B226">
-        <v>570356.932</v>
+        <v>585106.173</v>
       </c>
       <c r="C226">
         <v>27228.783</v>
@@ -30954,7 +30954,7 @@
         <v>49</v>
       </c>
       <c r="B227">
-        <v>619977.947</v>
+        <v>628918.472</v>
       </c>
       <c r="C227">
         <v>28623.138</v>
@@ -31088,7 +31088,7 @@
         <v>50</v>
       </c>
       <c r="B228">
-        <v>632794.411</v>
+        <v>652987.509</v>
       </c>
       <c r="C228">
         <v>30547.162</v>
@@ -31222,7 +31222,7 @@
         <v>51</v>
       </c>
       <c r="B229">
-        <v>703669.313</v>
+        <v>724718.496</v>
       </c>
       <c r="C229">
         <v>36266.028</v>
@@ -31356,7 +31356,7 @@
         <v>52</v>
       </c>
       <c r="B230">
-        <v>755901.522</v>
+        <v>774778.292</v>
       </c>
       <c r="C230">
         <v>37237.142</v>
@@ -31490,7 +31490,7 @@
         <v>53</v>
       </c>
       <c r="B231">
-        <v>845230.9620000001</v>
+        <v>862228.503</v>
       </c>
       <c r="C231">
         <v>41139.817</v>
@@ -31624,7 +31624,7 @@
         <v>54</v>
       </c>
       <c r="B232">
-        <v>834661.303</v>
+        <v>857346.875</v>
       </c>
       <c r="C232">
         <v>41539.357</v>
@@ -31758,7 +31758,7 @@
         <v>55</v>
       </c>
       <c r="B233">
-        <v>849302.9</v>
+        <v>884136.654</v>
       </c>
       <c r="C233">
         <v>41530.588</v>
@@ -31892,7 +31892,7 @@
         <v>56</v>
       </c>
       <c r="B234">
-        <v>875209.804</v>
+        <v>918250.9669999999</v>
       </c>
       <c r="C234">
         <v>45337.096</v>
@@ -32026,7 +32026,7 @@
         <v>57</v>
       </c>
       <c r="B235">
-        <v>894303.77</v>
+        <v>944063.831</v>
       </c>
       <c r="C235">
         <v>47569.902</v>
@@ -32160,7 +32160,7 @@
         <v>58</v>
       </c>
       <c r="B236">
-        <v>928456.697</v>
+        <v>970767.379</v>
       </c>
       <c r="C236">
         <v>53283.8</v>
@@ -32294,7 +32294,7 @@
         <v>59</v>
       </c>
       <c r="B237">
-        <v>985346.044</v>
+        <v>1029905.4</v>
       </c>
       <c r="C237">
         <v>58861.134</v>
@@ -32428,7 +32428,7 @@
         <v>60</v>
       </c>
       <c r="B238">
-        <v>1049216.094</v>
+        <v>1099660.825</v>
       </c>
       <c r="C238">
         <v>59583.513</v>
@@ -32562,7 +32562,7 @@
         <v>61</v>
       </c>
       <c r="B239">
-        <v>1003393.29</v>
+        <v>1056165.837</v>
       </c>
       <c r="C239">
         <v>67068.905</v>
@@ -32696,7 +32696,7 @@
         <v>62</v>
       </c>
       <c r="B240">
-        <v>1096973.613</v>
+        <v>1152454.76</v>
       </c>
       <c r="C240">
         <v>72621.43799999999</v>
@@ -32830,7 +32830,7 @@
         <v>63</v>
       </c>
       <c r="B241">
-        <v>1205267.525</v>
+        <v>1251659.524</v>
       </c>
       <c r="C241">
         <v>79169.715</v>
@@ -32964,7 +32964,7 @@
         <v>44</v>
       </c>
       <c r="B242">
-        <v>105755.901</v>
+        <v>110603.098</v>
       </c>
       <c r="C242">
         <v>3227.614</v>
@@ -33098,7 +33098,7 @@
         <v>45</v>
       </c>
       <c r="B243">
-        <v>116595.647</v>
+        <v>121281.924</v>
       </c>
       <c r="C243">
         <v>4223.042</v>
@@ -33232,7 +33232,7 @@
         <v>46</v>
       </c>
       <c r="B244">
-        <v>129498.774</v>
+        <v>134299.364</v>
       </c>
       <c r="C244">
         <v>4621.514</v>
@@ -33366,7 +33366,7 @@
         <v>47</v>
       </c>
       <c r="B245">
-        <v>141988.269</v>
+        <v>146676.35</v>
       </c>
       <c r="C245">
         <v>4580.856</v>
@@ -33500,7 +33500,7 @@
         <v>48</v>
       </c>
       <c r="B246">
-        <v>154765.851</v>
+        <v>160017.756</v>
       </c>
       <c r="C246">
         <v>4585.225</v>
@@ -33634,7 +33634,7 @@
         <v>49</v>
       </c>
       <c r="B247">
-        <v>168159.684</v>
+        <v>171500.851</v>
       </c>
       <c r="C247">
         <v>4653.375</v>
@@ -33768,7 +33768,7 @@
         <v>50</v>
       </c>
       <c r="B248">
-        <v>175124.943</v>
+        <v>181462.7</v>
       </c>
       <c r="C248">
         <v>5286.688</v>
@@ -33902,7 +33902,7 @@
         <v>51</v>
       </c>
       <c r="B249">
-        <v>186669.057</v>
+        <v>193314.432</v>
       </c>
       <c r="C249">
         <v>5925.928</v>
@@ -34036,7 +34036,7 @@
         <v>52</v>
       </c>
       <c r="B250">
-        <v>199018.102</v>
+        <v>205197.013</v>
       </c>
       <c r="C250">
         <v>6150.797</v>
@@ -34170,7 +34170,7 @@
         <v>53</v>
       </c>
       <c r="B251">
-        <v>217049.31</v>
+        <v>222861.448</v>
       </c>
       <c r="C251">
         <v>6584.055</v>
@@ -34304,7 +34304,7 @@
         <v>54</v>
       </c>
       <c r="B252">
-        <v>227640.709</v>
+        <v>235271.557</v>
       </c>
       <c r="C252">
         <v>6965.329</v>
@@ -34438,7 +34438,7 @@
         <v>55</v>
       </c>
       <c r="B253">
-        <v>243986.481</v>
+        <v>255434.223</v>
       </c>
       <c r="C253">
         <v>7633.203</v>
@@ -34572,7 +34572,7 @@
         <v>56</v>
       </c>
       <c r="B254">
-        <v>259517.405</v>
+        <v>272682.938</v>
       </c>
       <c r="C254">
         <v>7557.155</v>
@@ -34706,7 +34706,7 @@
         <v>57</v>
       </c>
       <c r="B255">
-        <v>287510.311</v>
+        <v>303104.546</v>
       </c>
       <c r="C255">
         <v>8335.058999999999</v>
@@ -34840,7 +34840,7 @@
         <v>58</v>
       </c>
       <c r="B256">
-        <v>317650.522</v>
+        <v>332961.869</v>
       </c>
       <c r="C256">
         <v>9025.567999999999</v>
@@ -34974,7 +34974,7 @@
         <v>59</v>
       </c>
       <c r="B257">
-        <v>347299.655</v>
+        <v>364797.901</v>
       </c>
       <c r="C257">
         <v>10497.353</v>
@@ -35108,7 +35108,7 @@
         <v>60</v>
       </c>
       <c r="B258">
-        <v>362548.32</v>
+        <v>382149.517</v>
       </c>
       <c r="C258">
         <v>11102.403</v>
@@ -35242,7 +35242,7 @@
         <v>61</v>
       </c>
       <c r="B259">
-        <v>347238.218</v>
+        <v>367433.133</v>
       </c>
       <c r="C259">
         <v>11346.735</v>
@@ -35376,7 +35376,7 @@
         <v>62</v>
       </c>
       <c r="B260">
-        <v>390712.844</v>
+        <v>412945.643</v>
       </c>
       <c r="C260">
         <v>13333.984</v>
@@ -35510,7 +35510,7 @@
         <v>63</v>
       </c>
       <c r="B261">
-        <v>441348.865</v>
+        <v>461392.144</v>
       </c>
       <c r="C261">
         <v>15295.281</v>
@@ -35644,7 +35644,7 @@
         <v>44</v>
       </c>
       <c r="B262">
-        <v>81069.095</v>
+        <v>85708.24400000001</v>
       </c>
       <c r="C262">
         <v>3199.706</v>
@@ -35778,7 +35778,7 @@
         <v>45</v>
       </c>
       <c r="B263">
-        <v>89888.162</v>
+        <v>94596.568</v>
       </c>
       <c r="C263">
         <v>3273.242</v>
@@ -35912,7 +35912,7 @@
         <v>46</v>
       </c>
       <c r="B264">
-        <v>96234.512</v>
+        <v>100985.775</v>
       </c>
       <c r="C264">
         <v>4191.265</v>
@@ -36046,7 +36046,7 @@
         <v>47</v>
       </c>
       <c r="B265">
-        <v>108413.644</v>
+        <v>113517.313</v>
       </c>
       <c r="C265">
         <v>4346.885</v>
@@ -36180,7 +36180,7 @@
         <v>48</v>
       </c>
       <c r="B266">
-        <v>123706.906</v>
+        <v>129736.35</v>
       </c>
       <c r="C266">
         <v>4942.549</v>
@@ -36314,7 +36314,7 @@
         <v>49</v>
       </c>
       <c r="B267">
-        <v>129629.539</v>
+        <v>134044.056</v>
       </c>
       <c r="C267">
         <v>5194.265</v>
@@ -36448,7 +36448,7 @@
         <v>50</v>
       </c>
       <c r="B268">
-        <v>127359.814</v>
+        <v>133634.071</v>
       </c>
       <c r="C268">
         <v>5147.018</v>
@@ -36582,7 +36582,7 @@
         <v>51</v>
       </c>
       <c r="B269">
-        <v>141539.04</v>
+        <v>148738.088</v>
       </c>
       <c r="C269">
         <v>5793.97</v>
@@ -36716,7 +36716,7 @@
         <v>52</v>
       </c>
       <c r="B270">
-        <v>152758.425</v>
+        <v>159749.078</v>
       </c>
       <c r="C270">
         <v>6371.305</v>
@@ -36850,7 +36850,7 @@
         <v>53</v>
       </c>
       <c r="B271">
-        <v>170110.425</v>
+        <v>177238.499</v>
       </c>
       <c r="C271">
         <v>7609.463</v>
@@ -36984,7 +36984,7 @@
         <v>54</v>
       </c>
       <c r="B272">
-        <v>179059.058</v>
+        <v>188339.208</v>
       </c>
       <c r="C272">
         <v>7498.636</v>
@@ -37118,7 +37118,7 @@
         <v>55</v>
       </c>
       <c r="B273">
-        <v>199115.083</v>
+        <v>212765.092</v>
       </c>
       <c r="C273">
         <v>8356.405000000001</v>
@@ -37252,7 +37252,7 @@
         <v>56</v>
       </c>
       <c r="B274">
-        <v>223942.956</v>
+        <v>240116.387</v>
       </c>
       <c r="C274">
         <v>8442.484</v>
@@ -37386,7 +37386,7 @@
         <v>57</v>
       </c>
       <c r="B275">
-        <v>254438.729</v>
+        <v>273672.856</v>
       </c>
       <c r="C275">
         <v>9636.710999999999</v>
@@ -37520,7 +37520,7 @@
         <v>58</v>
       </c>
       <c r="B276">
-        <v>277878.008</v>
+        <v>296511.594</v>
       </c>
       <c r="C276">
         <v>10502.245</v>
@@ -37654,7 +37654,7 @@
         <v>59</v>
       </c>
       <c r="B277">
-        <v>307375.128</v>
+        <v>327926.307</v>
       </c>
       <c r="C277">
         <v>12196.068</v>
@@ -37788,7 +37788,7 @@
         <v>60</v>
       </c>
       <c r="B278">
-        <v>316071.045</v>
+        <v>338280.192</v>
       </c>
       <c r="C278">
         <v>12456.617</v>
@@ -37922,7 +37922,7 @@
         <v>61</v>
       </c>
       <c r="B279">
-        <v>322667.116</v>
+        <v>346885.548</v>
       </c>
       <c r="C279">
         <v>14016.266</v>
@@ -38056,7 +38056,7 @@
         <v>62</v>
       </c>
       <c r="B280">
-        <v>340961.189</v>
+        <v>365337.441</v>
       </c>
       <c r="C280">
         <v>16108.07</v>
@@ -38190,7 +38190,7 @@
         <v>63</v>
       </c>
       <c r="B281">
-        <v>363861.349</v>
+        <v>384199.614</v>
       </c>
       <c r="C281">
         <v>16833.511</v>
@@ -38324,7 +38324,7 @@
         <v>44</v>
       </c>
       <c r="B282">
-        <v>278078.7</v>
+        <v>293986.444</v>
       </c>
       <c r="C282">
         <v>6575.265</v>
@@ -38458,7 +38458,7 @@
         <v>45</v>
       </c>
       <c r="B283">
-        <v>308503.528</v>
+        <v>324394.097</v>
       </c>
       <c r="C283">
         <v>7283.983</v>
@@ -38592,7 +38592,7 @@
         <v>46</v>
       </c>
       <c r="B284">
-        <v>326824.886</v>
+        <v>341880.024</v>
       </c>
       <c r="C284">
         <v>8757.971</v>
@@ -38726,7 +38726,7 @@
         <v>47</v>
       </c>
       <c r="B285">
-        <v>369986.042</v>
+        <v>384904.493</v>
       </c>
       <c r="C285">
         <v>8507.784</v>
@@ -38860,7 +38860,7 @@
         <v>48</v>
       </c>
       <c r="B286">
-        <v>402865.875</v>
+        <v>418996.285</v>
       </c>
       <c r="C286">
         <v>8988.502</v>
@@ -38994,7 +38994,7 @@
         <v>49</v>
       </c>
       <c r="B287">
-        <v>434274.352</v>
+        <v>444992.417</v>
       </c>
       <c r="C287">
         <v>9664.389999999999</v>
@@ -39128,7 +39128,7 @@
         <v>50</v>
       </c>
       <c r="B288">
-        <v>383621.964</v>
+        <v>399084.618</v>
       </c>
       <c r="C288">
         <v>10831.267</v>
@@ -39262,7 +39262,7 @@
         <v>51</v>
       </c>
       <c r="B289">
-        <v>468466.096</v>
+        <v>486883.741</v>
       </c>
       <c r="C289">
         <v>12005.33</v>
@@ -39396,7 +39396,7 @@
         <v>52</v>
       </c>
       <c r="B290">
-        <v>537257.992</v>
+        <v>555969.063</v>
       </c>
       <c r="C290">
         <v>13133.123</v>
@@ -39530,7 +39530,7 @@
         <v>53</v>
       </c>
       <c r="B291">
-        <v>596055.828</v>
+        <v>614645.542</v>
       </c>
       <c r="C291">
         <v>12596.754</v>
@@ -39664,7 +39664,7 @@
         <v>54</v>
       </c>
       <c r="B292">
-        <v>586677.356</v>
+        <v>611076.485</v>
       </c>
       <c r="C292">
         <v>13033.997</v>
@@ -39798,7 +39798,7 @@
         <v>55</v>
       </c>
       <c r="B293">
-        <v>636704.0820000001</v>
+        <v>671619.231</v>
       </c>
       <c r="C293">
         <v>15855.812</v>
@@ -39932,7 +39932,7 @@
         <v>56</v>
       </c>
       <c r="B294">
-        <v>695517.138</v>
+        <v>737668.183</v>
       </c>
       <c r="C294">
         <v>16542.165</v>
@@ -40066,7 +40066,7 @@
         <v>57</v>
       </c>
       <c r="B295">
-        <v>755148.722</v>
+        <v>808734.228</v>
       </c>
       <c r="C295">
         <v>16233.304</v>
@@ -40200,7 +40200,7 @@
         <v>58</v>
       </c>
       <c r="B296">
-        <v>838308.371</v>
+        <v>891469.187</v>
       </c>
       <c r="C296">
         <v>16465.425</v>
@@ -40334,7 +40334,7 @@
         <v>59</v>
       </c>
       <c r="B297">
-        <v>907746.098</v>
+        <v>966054.662</v>
       </c>
       <c r="C297">
         <v>17696.895</v>
@@ -40468,7 +40468,7 @@
         <v>60</v>
       </c>
       <c r="B298">
-        <v>957628.747</v>
+        <v>1024286.37</v>
       </c>
       <c r="C298">
         <v>18808.5</v>
@@ -40602,7 +40602,7 @@
         <v>61</v>
       </c>
       <c r="B299">
-        <v>913367.1090000001</v>
+        <v>984203.372</v>
       </c>
       <c r="C299">
         <v>20636.943</v>
@@ -40736,7 +40736,7 @@
         <v>62</v>
       </c>
       <c r="B300">
-        <v>1017196.211</v>
+        <v>1090558.3</v>
       </c>
       <c r="C300">
         <v>22263.686</v>
@@ -40870,7 +40870,7 @@
         <v>63</v>
       </c>
       <c r="B301">
-        <v>1086396.906</v>
+        <v>1149123.673</v>
       </c>
       <c r="C301">
         <v>24925.372</v>
@@ -41004,7 +41004,7 @@
         <v>44</v>
       </c>
       <c r="B302">
-        <v>146164.086</v>
+        <v>151381.107</v>
       </c>
       <c r="C302">
         <v>11037.147</v>
@@ -41138,7 +41138,7 @@
         <v>45</v>
       </c>
       <c r="B303">
-        <v>153021.837</v>
+        <v>157664.326</v>
       </c>
       <c r="C303">
         <v>11105.605</v>
@@ -41272,7 +41272,7 @@
         <v>46</v>
       </c>
       <c r="B304">
-        <v>165140.035</v>
+        <v>169422.368</v>
       </c>
       <c r="C304">
         <v>11542.388</v>
@@ -41406,7 +41406,7 @@
         <v>47</v>
       </c>
       <c r="B305">
-        <v>183276.965</v>
+        <v>186899.766</v>
       </c>
       <c r="C305">
         <v>13143.526</v>
@@ -41540,7 +41540,7 @@
         <v>48</v>
       </c>
       <c r="B306">
-        <v>196431.809</v>
+        <v>201085.333</v>
       </c>
       <c r="C306">
         <v>14723.025</v>
@@ -41674,7 +41674,7 @@
         <v>49</v>
       </c>
       <c r="B307">
-        <v>220476.409</v>
+        <v>222198.136</v>
       </c>
       <c r="C307">
         <v>15355.002</v>
@@ -41808,7 +41808,7 @@
         <v>50</v>
       </c>
       <c r="B308">
-        <v>220833.959</v>
+        <v>227059.698</v>
       </c>
       <c r="C308">
         <v>15896.824</v>
@@ -41942,7 +41942,7 @@
         <v>51</v>
       </c>
       <c r="B309">
-        <v>246335.437</v>
+        <v>252291.045</v>
       </c>
       <c r="C309">
         <v>17715.238</v>
@@ -42076,7 +42076,7 @@
         <v>52</v>
       </c>
       <c r="B310">
-        <v>266345.657</v>
+        <v>271284.423</v>
       </c>
       <c r="C310">
         <v>19756.4729999999</v>
@@ -42210,7 +42210,7 @@
         <v>53</v>
       </c>
       <c r="B311">
-        <v>289492.376</v>
+        <v>293224.545</v>
       </c>
       <c r="C311">
         <v>20749.852</v>
@@ -42344,7 +42344,7 @@
         <v>54</v>
       </c>
       <c r="B312">
-        <v>287067.82</v>
+        <v>293525.579</v>
       </c>
       <c r="C312">
         <v>19460.863</v>
@@ -42478,7 +42478,7 @@
         <v>55</v>
       </c>
       <c r="B313">
-        <v>304096.851</v>
+        <v>314202.608</v>
       </c>
       <c r="C313">
         <v>18839.874</v>
@@ -42612,7 +42612,7 @@
         <v>56</v>
       </c>
       <c r="B314">
-        <v>303575.034</v>
+        <v>317079.267</v>
       </c>
       <c r="C314">
         <v>19673.809</v>
@@ -42746,7 +42746,7 @@
         <v>57</v>
       </c>
       <c r="B315">
-        <v>326366.61</v>
+        <v>342482.895</v>
       </c>
       <c r="C315">
         <v>21904.486</v>
@@ -42880,7 +42880,7 @@
         <v>58</v>
       </c>
       <c r="B316">
-        <v>328005.106</v>
+        <v>341320.647</v>
       </c>
       <c r="C316">
         <v>21629.228</v>
@@ -43014,7 +43014,7 @@
         <v>59</v>
       </c>
       <c r="B317">
-        <v>340219.119</v>
+        <v>353600.113</v>
       </c>
       <c r="C317">
         <v>23181.939</v>
@@ -43148,7 +43148,7 @@
         <v>60</v>
       </c>
       <c r="B318">
-        <v>348625.387</v>
+        <v>364079.909</v>
       </c>
       <c r="C318">
         <v>23688.302</v>
@@ -43282,7 +43282,7 @@
         <v>61</v>
       </c>
       <c r="B319">
-        <v>349504.011</v>
+        <v>365764.849</v>
       </c>
       <c r="C319">
         <v>25567.133</v>
@@ -43416,7 +43416,7 @@
         <v>62</v>
       </c>
       <c r="B320">
-        <v>385857.78</v>
+        <v>402432.06</v>
       </c>
       <c r="C320">
         <v>28468.24</v>
@@ -43550,7 +43550,7 @@
         <v>63</v>
       </c>
       <c r="B321">
-        <v>441315.098</v>
+        <v>454549.421</v>
       </c>
       <c r="C321">
         <v>30009.319</v>
@@ -43684,7 +43684,7 @@
         <v>44</v>
       </c>
       <c r="B322">
-        <v>260552.371</v>
+        <v>273946.992</v>
       </c>
       <c r="C322">
         <v>13317.697</v>
@@ -43818,7 +43818,7 @@
         <v>45</v>
       </c>
       <c r="B323">
-        <v>285862.348</v>
+        <v>299020.786</v>
       </c>
       <c r="C323">
         <v>16595.399</v>
@@ -43952,7 +43952,7 @@
         <v>46</v>
       </c>
       <c r="B324">
-        <v>308098.86</v>
+        <v>321149.86</v>
       </c>
       <c r="C324">
         <v>18250.197</v>
@@ -44086,7 +44086,7 @@
         <v>47</v>
       </c>
       <c r="B325">
-        <v>348036.827</v>
+        <v>361417.353</v>
       </c>
       <c r="C325">
         <v>20452.72</v>
@@ -44220,7 +44220,7 @@
         <v>48</v>
       </c>
       <c r="B326">
-        <v>387215.695</v>
+        <v>402086.855</v>
       </c>
       <c r="C326">
         <v>22144.448</v>
@@ -44354,7 +44354,7 @@
         <v>49</v>
       </c>
       <c r="B327">
-        <v>421196.611</v>
+        <v>431946.568</v>
       </c>
       <c r="C327">
         <v>22276.07</v>
@@ -44488,7 +44488,7 @@
         <v>50</v>
       </c>
       <c r="B328">
-        <v>397510.172</v>
+        <v>414553.036</v>
       </c>
       <c r="C328">
         <v>21098.229</v>
@@ -44622,7 +44622,7 @@
         <v>51</v>
       </c>
       <c r="B329">
-        <v>425492.076</v>
+        <v>443251.501</v>
       </c>
       <c r="C329">
         <v>26524.503</v>
@@ -44756,7 +44756,7 @@
         <v>52</v>
       </c>
       <c r="B330">
-        <v>448674.119</v>
+        <v>464847.209</v>
       </c>
       <c r="C330">
         <v>27533.9</v>
@@ -44890,7 +44890,7 @@
         <v>53</v>
       </c>
       <c r="B331">
-        <v>515611.085</v>
+        <v>532863.147</v>
       </c>
       <c r="C331">
         <v>29021.85</v>
@@ -45024,7 +45024,7 @@
         <v>54</v>
       </c>
       <c r="B332">
-        <v>525204.596</v>
+        <v>546465.504</v>
       </c>
       <c r="C332">
         <v>30697.596</v>
@@ -45158,7 +45158,7 @@
         <v>55</v>
       </c>
       <c r="B333">
-        <v>563680.495</v>
+        <v>594703.688</v>
       </c>
       <c r="C333">
         <v>34297.97</v>
@@ -45292,7 +45292,7 @@
         <v>56</v>
       </c>
       <c r="B334">
-        <v>656167.473</v>
+        <v>695318.91</v>
       </c>
       <c r="C334">
         <v>42370.059</v>
@@ -45426,7 +45426,7 @@
         <v>57</v>
       </c>
       <c r="B335">
-        <v>715043.193</v>
+        <v>760954.487</v>
       </c>
       <c r="C335">
         <v>43815.474</v>
@@ -45560,7 +45560,7 @@
         <v>58</v>
       </c>
       <c r="B336">
-        <v>779329.691</v>
+        <v>822681.841</v>
       </c>
       <c r="C336">
         <v>53435.235</v>
@@ -45694,7 +45694,7 @@
         <v>59</v>
       </c>
       <c r="B337">
-        <v>809521.347</v>
+        <v>853322.804</v>
       </c>
       <c r="C337">
         <v>56419.942</v>
@@ -45828,7 +45828,7 @@
         <v>60</v>
       </c>
       <c r="B338">
-        <v>847279.099</v>
+        <v>895987.708</v>
       </c>
       <c r="C338">
         <v>55636.384</v>
@@ -45962,7 +45962,7 @@
         <v>61</v>
       </c>
       <c r="B339">
-        <v>829493.0600000001</v>
+        <v>881849.504</v>
       </c>
       <c r="C339">
         <v>55900.503</v>
@@ -46096,7 +46096,7 @@
         <v>62</v>
       </c>
       <c r="B340">
-        <v>925693.682</v>
+        <v>980656.902</v>
       </c>
       <c r="C340">
         <v>68147.887</v>
@@ -46230,7 +46230,7 @@
         <v>63</v>
       </c>
       <c r="B341">
-        <v>1075259.668</v>
+        <v>1125154.076</v>
       </c>
       <c r="C341">
         <v>75450.46799999999</v>
@@ -46364,7 +46364,7 @@
         <v>44</v>
       </c>
       <c r="B342">
-        <v>1416249.768</v>
+        <v>1493160.637</v>
       </c>
       <c r="C342">
         <v>1055.432</v>
@@ -46498,7 +46498,7 @@
         <v>45</v>
       </c>
       <c r="B343">
-        <v>1571383.823</v>
+        <v>1649260.74</v>
       </c>
       <c r="C343">
         <v>984.851</v>
@@ -46632,7 +46632,7 @@
         <v>46</v>
       </c>
       <c r="B344">
-        <v>1702021.868</v>
+        <v>1782574.218</v>
       </c>
       <c r="C344">
         <v>896.852</v>
@@ -46766,7 +46766,7 @@
         <v>47</v>
       </c>
       <c r="B345">
-        <v>1858738.381</v>
+        <v>1940981.924</v>
       </c>
       <c r="C345">
         <v>1177.671</v>
@@ -46900,7 +46900,7 @@
         <v>48</v>
       </c>
       <c r="B346">
-        <v>1970562.624</v>
+        <v>2057831.438</v>
       </c>
       <c r="C346">
         <v>1099.549</v>
@@ -47034,7 +47034,7 @@
         <v>49</v>
       </c>
       <c r="B347">
-        <v>2102607.382</v>
+        <v>2168737.985</v>
       </c>
       <c r="C347">
         <v>1148.305</v>
@@ -47168,7 +47168,7 @@
         <v>50</v>
       </c>
       <c r="B348">
-        <v>2108851.019</v>
+        <v>2207551.063</v>
       </c>
       <c r="C348">
         <v>1145.991</v>
@@ -47302,7 +47302,7 @@
         <v>51</v>
       </c>
       <c r="B349">
-        <v>2251457.263</v>
+        <v>2359373.904</v>
       </c>
       <c r="C349">
         <v>1307.712</v>
@@ -47436,7 +47436,7 @@
         <v>52</v>
       </c>
       <c r="B350">
-        <v>2408000.158</v>
+        <v>2506943.06</v>
       </c>
       <c r="C350">
         <v>1017.892</v>
@@ -47570,7 +47570,7 @@
         <v>53</v>
       </c>
       <c r="B351">
-        <v>2580935.263</v>
+        <v>2676523.752</v>
       </c>
       <c r="C351">
         <v>1062.132</v>
@@ -47704,7 +47704,7 @@
         <v>54</v>
       </c>
       <c r="B352">
-        <v>2690514.158</v>
+        <v>2814626.399</v>
       </c>
       <c r="C352">
         <v>1338.141</v>
@@ -47838,7 +47838,7 @@
         <v>55</v>
       </c>
       <c r="B353">
-        <v>2794499.035</v>
+        <v>2959379.635</v>
       </c>
       <c r="C353">
         <v>1117.168</v>
@@ -47972,7 +47972,7 @@
         <v>56</v>
       </c>
       <c r="B354">
-        <v>2943764.159</v>
+        <v>3128313.267</v>
       </c>
       <c r="C354">
         <v>1134.251</v>
@@ -48106,7 +48106,7 @@
         <v>57</v>
       </c>
       <c r="B355">
-        <v>3108684.602</v>
+        <v>3310454.073</v>
       </c>
       <c r="C355">
         <v>1580.241</v>
@@ -48240,7 +48240,7 @@
         <v>58</v>
       </c>
       <c r="B356">
-        <v>3302232.258</v>
+        <v>3498642.379</v>
       </c>
       <c r="C356">
         <v>1160.103</v>
@@ -48374,7 +48374,7 @@
         <v>59</v>
       </c>
       <c r="B357">
-        <v>3482680.222</v>
+        <v>3694574.875</v>
       </c>
       <c r="C357">
         <v>1367.925</v>
@@ -48508,7 +48508,7 @@
         <v>60</v>
       </c>
       <c r="B358">
-        <v>3574573.267</v>
+        <v>3803869.54</v>
       </c>
       <c r="C358">
         <v>1515.209</v>
@@ -48642,7 +48642,7 @@
         <v>61</v>
       </c>
       <c r="B359">
-        <v>3328009.028</v>
+        <v>3561420.918</v>
       </c>
       <c r="C359">
         <v>1495.693</v>
@@ -48776,7 +48776,7 @@
         <v>62</v>
       </c>
       <c r="B360">
-        <v>3627742.048</v>
+        <v>3876249.178</v>
       </c>
       <c r="C360">
         <v>1697.96</v>
@@ -48910,7 +48910,7 @@
         <v>63</v>
       </c>
       <c r="B361">
-        <v>4055867.341</v>
+        <v>4287768.21</v>
       </c>
       <c r="C361">
         <v>1680.74</v>
@@ -49044,7 +49044,7 @@
         <v>44</v>
       </c>
       <c r="B362">
-        <v>104595.212</v>
+        <v>108769.231</v>
       </c>
       <c r="C362">
         <v>12577.306</v>
@@ -49178,7 +49178,7 @@
         <v>45</v>
       </c>
       <c r="B363">
-        <v>117786.222</v>
+        <v>121773.771</v>
       </c>
       <c r="C363">
         <v>13546.606</v>
@@ -49312,7 +49312,7 @@
         <v>46</v>
       </c>
       <c r="B364">
-        <v>121538.784</v>
+        <v>125325.855</v>
       </c>
       <c r="C364">
         <v>12192.65</v>
@@ -49446,7 +49446,7 @@
         <v>47</v>
       </c>
       <c r="B365">
-        <v>130007.997</v>
+        <v>133468.487</v>
       </c>
       <c r="C365">
         <v>13324.576</v>
@@ -49580,7 +49580,7 @@
         <v>48</v>
       </c>
       <c r="B366">
-        <v>142277.255</v>
+        <v>145918.639</v>
       </c>
       <c r="C366">
         <v>13462.322</v>
@@ -49714,7 +49714,7 @@
         <v>49</v>
       </c>
       <c r="B367">
-        <v>160969.543</v>
+        <v>163085.409</v>
       </c>
       <c r="C367">
         <v>13845.234</v>
@@ -49848,7 +49848,7 @@
         <v>50</v>
       </c>
       <c r="B368">
-        <v>167518.843</v>
+        <v>172552.976</v>
       </c>
       <c r="C368">
         <v>15124.971</v>
@@ -49982,7 +49982,7 @@
         <v>51</v>
       </c>
       <c r="B369">
-        <v>175570.651</v>
+        <v>180300.518</v>
       </c>
       <c r="C369">
         <v>13839.053</v>
@@ -50116,7 +50116,7 @@
         <v>52</v>
       </c>
       <c r="B370">
-        <v>202199.184</v>
+        <v>206419.902</v>
       </c>
       <c r="C370">
         <v>14524.209</v>
@@ -50250,7 +50250,7 @@
         <v>53</v>
       </c>
       <c r="B371">
-        <v>222272.473</v>
+        <v>226107.852</v>
       </c>
       <c r="C371">
         <v>18047.496</v>
@@ -50384,7 +50384,7 @@
         <v>54</v>
       </c>
       <c r="B372">
-        <v>231556.224</v>
+        <v>237429.038</v>
       </c>
       <c r="C372">
         <v>19111.71</v>
@@ -50518,7 +50518,7 @@
         <v>55</v>
       </c>
       <c r="B373">
-        <v>242785.502</v>
+        <v>251624.401</v>
       </c>
       <c r="C373">
         <v>20795.638</v>
@@ -50652,7 +50652,7 @@
         <v>56</v>
       </c>
       <c r="B374">
-        <v>249203.25</v>
+        <v>260348.823</v>
       </c>
       <c r="C374">
         <v>21118.566</v>
@@ -50786,7 +50786,7 @@
         <v>57</v>
       </c>
       <c r="B375">
-        <v>269791.282</v>
+        <v>283350.815</v>
       </c>
       <c r="C375">
         <v>23532.809</v>
@@ -50920,7 +50920,7 @@
         <v>58</v>
       </c>
       <c r="B376">
-        <v>286217.232</v>
+        <v>298078.741</v>
       </c>
       <c r="C376">
         <v>24626.068</v>
@@ -51054,7 +51054,7 @@
         <v>59</v>
       </c>
       <c r="B377">
-        <v>296519.184</v>
+        <v>308981.254</v>
       </c>
       <c r="C377">
         <v>24770.022</v>
@@ -51188,7 +51188,7 @@
         <v>60</v>
       </c>
       <c r="B378">
-        <v>312297.773</v>
+        <v>326614.277</v>
       </c>
       <c r="C378">
         <v>25513.962</v>
@@ -51322,7 +51322,7 @@
         <v>61</v>
       </c>
       <c r="B379">
-        <v>304714.139</v>
+        <v>319364.59</v>
       </c>
       <c r="C379">
         <v>26303.993</v>
@@ -51456,7 +51456,7 @@
         <v>62</v>
       </c>
       <c r="B380">
-        <v>342061.516</v>
+        <v>357690.97</v>
       </c>
       <c r="C380">
         <v>31790.984</v>
@@ -51590,7 +51590,7 @@
         <v>63</v>
       </c>
       <c r="B381">
-        <v>362399.763</v>
+        <v>374586.462</v>
       </c>
       <c r="C381">
         <v>34668.793</v>
@@ -51724,7 +51724,7 @@
         <v>44</v>
       </c>
       <c r="B382">
-        <v>306656.77</v>
+        <v>322100.684</v>
       </c>
       <c r="C382">
         <v>13157.543</v>
@@ -51858,7 +51858,7 @@
         <v>45</v>
       </c>
       <c r="B383">
-        <v>337669.428</v>
+        <v>352905</v>
       </c>
       <c r="C383">
         <v>14810.81</v>
@@ -51992,7 +51992,7 @@
         <v>46</v>
       </c>
       <c r="B384">
-        <v>352924.42</v>
+        <v>367768.357</v>
       </c>
       <c r="C384">
         <v>14861.532</v>
@@ -52126,7 +52126,7 @@
         <v>47</v>
       </c>
       <c r="B385">
-        <v>402255.902</v>
+        <v>416999.884</v>
       </c>
       <c r="C385">
         <v>15507.928</v>
@@ -52260,7 +52260,7 @@
         <v>48</v>
       </c>
       <c r="B386">
-        <v>425038.755</v>
+        <v>440846.139</v>
       </c>
       <c r="C386">
         <v>17214.064</v>
@@ -52394,7 +52394,7 @@
         <v>49</v>
       </c>
       <c r="B387">
-        <v>466799.639</v>
+        <v>477522.003</v>
       </c>
       <c r="C387">
         <v>19781.054</v>
@@ -52528,7 +52528,7 @@
         <v>50</v>
       </c>
       <c r="B388">
-        <v>464823.794</v>
+        <v>483834.418</v>
       </c>
       <c r="C388">
         <v>19644.072</v>
@@ -52662,7 +52662,7 @@
         <v>51</v>
       </c>
       <c r="B389">
-        <v>511335.696</v>
+        <v>532581.477</v>
       </c>
       <c r="C389">
         <v>21167.56</v>
@@ -52796,7 +52796,7 @@
         <v>52</v>
       </c>
       <c r="B390">
-        <v>568634.36</v>
+        <v>588734.5870000001</v>
       </c>
       <c r="C390">
         <v>25136.472</v>
@@ -52930,7 +52930,7 @@
         <v>53</v>
       </c>
       <c r="B391">
-        <v>628371.765</v>
+        <v>647244.281</v>
       </c>
       <c r="C391">
         <v>23913.015</v>
@@ -53064,7 +53064,7 @@
         <v>54</v>
       </c>
       <c r="B392">
-        <v>660403.585</v>
+        <v>686884.429</v>
       </c>
       <c r="C392">
         <v>25091.867</v>
@@ -53198,7 +53198,7 @@
         <v>55</v>
       </c>
       <c r="B393">
-        <v>721481.8639999999</v>
+        <v>762441.925</v>
       </c>
       <c r="C393">
         <v>25347.386</v>
@@ -53332,7 +53332,7 @@
         <v>56</v>
       </c>
       <c r="B394">
-        <v>801986.2659999999</v>
+        <v>852692.986</v>
       </c>
       <c r="C394">
         <v>27617.431</v>
@@ -53466,7 +53466,7 @@
         <v>57</v>
       </c>
       <c r="B395">
-        <v>872837.498</v>
+        <v>935441.919</v>
       </c>
       <c r="C395">
         <v>31124.859</v>
@@ -53600,7 +53600,7 @@
         <v>58</v>
       </c>
       <c r="B396">
-        <v>998218.147</v>
+        <v>1059902.706</v>
       </c>
       <c r="C396">
         <v>35503.2229999999</v>
@@ -53734,7 +53734,7 @@
         <v>59</v>
       </c>
       <c r="B397">
-        <v>1057787.437</v>
+        <v>1120602.844</v>
       </c>
       <c r="C397">
         <v>40472.77</v>
@@ -53868,7 +53868,7 @@
         <v>60</v>
       </c>
       <c r="B398">
-        <v>1078419.442</v>
+        <v>1146609.688</v>
       </c>
       <c r="C398">
         <v>41019.074</v>
@@ -54002,7 +54002,7 @@
         <v>61</v>
       </c>
       <c r="B399">
-        <v>1058098.074</v>
+        <v>1130405.566</v>
       </c>
       <c r="C399">
         <v>47676.497</v>
@@ -54136,7 +54136,7 @@
         <v>62</v>
       </c>
       <c r="B400">
-        <v>1172148.257</v>
+        <v>1249700.739</v>
       </c>
       <c r="C400">
         <v>59078.059</v>
@@ -54270,7 +54270,7 @@
         <v>63</v>
       </c>
       <c r="B401">
-        <v>1306860.479</v>
+        <v>1374749.364</v>
       </c>
       <c r="C401">
         <v>66283.174</v>
@@ -54404,7 +54404,7 @@
         <v>44</v>
       </c>
       <c r="B402">
-        <v>114249.157</v>
+        <v>118919.93</v>
       </c>
       <c r="C402">
         <v>5402.402</v>
@@ -54538,7 +54538,7 @@
         <v>45</v>
       </c>
       <c r="B403">
-        <v>137516.617</v>
+        <v>142209.283</v>
       </c>
       <c r="C403">
         <v>5984.364</v>
@@ -54672,7 +54672,7 @@
         <v>46</v>
       </c>
       <c r="B404">
-        <v>133108.706</v>
+        <v>137656.812</v>
       </c>
       <c r="C404">
         <v>6248.649</v>
@@ -54806,7 +54806,7 @@
         <v>47</v>
       </c>
       <c r="B405">
-        <v>161227.122</v>
+        <v>165572.146</v>
       </c>
       <c r="C405">
         <v>7368.368</v>
@@ -54940,7 +54940,7 @@
         <v>48</v>
       </c>
       <c r="B406">
-        <v>168745.493</v>
+        <v>173606.502</v>
       </c>
       <c r="C406">
         <v>7504.534</v>
@@ -55074,7 +55074,7 @@
         <v>49</v>
       </c>
       <c r="B407">
-        <v>192385.631</v>
+        <v>194906.455</v>
       </c>
       <c r="C407">
         <v>8258.496999999999</v>
@@ -55208,7 +55208,7 @@
         <v>50</v>
       </c>
       <c r="B408">
-        <v>180380.181</v>
+        <v>186408.476</v>
       </c>
       <c r="C408">
         <v>8004.908</v>
@@ -55342,7 +55342,7 @@
         <v>51</v>
       </c>
       <c r="B409">
-        <v>201927.087</v>
+        <v>208255.637</v>
       </c>
       <c r="C409">
         <v>8646.977000000001</v>
@@ -55476,7 +55476,7 @@
         <v>52</v>
       </c>
       <c r="B410">
-        <v>218339.898</v>
+        <v>224493.596</v>
       </c>
       <c r="C410">
         <v>8772.611000000001</v>
@@ -55610,7 +55610,7 @@
         <v>53</v>
       </c>
       <c r="B411">
-        <v>251262.102</v>
+        <v>256645.995</v>
       </c>
       <c r="C411">
         <v>11092.744</v>
@@ -55744,7 +55744,7 @@
         <v>54</v>
       </c>
       <c r="B412">
-        <v>248024.852</v>
+        <v>255347.555</v>
       </c>
       <c r="C412">
         <v>11096.127</v>
@@ -55878,7 +55878,7 @@
         <v>55</v>
       </c>
       <c r="B413">
-        <v>278132.652</v>
+        <v>289811.115</v>
       </c>
       <c r="C413">
         <v>10950.167</v>
@@ -56012,7 +56012,7 @@
         <v>56</v>
       </c>
       <c r="B414">
-        <v>308474.123</v>
+        <v>323224.065</v>
       </c>
       <c r="C414">
         <v>11354.732</v>
@@ -56146,7 +56146,7 @@
         <v>57</v>
       </c>
       <c r="B415">
-        <v>314858.985</v>
+        <v>332116.514</v>
       </c>
       <c r="C415">
         <v>12475.125</v>
@@ -56280,7 +56280,7 @@
         <v>58</v>
       </c>
       <c r="B416">
-        <v>360563.346</v>
+        <v>376947.521</v>
       </c>
       <c r="C416">
         <v>12201.809</v>
@@ -56414,7 +56414,7 @@
         <v>59</v>
       </c>
       <c r="B417">
-        <v>400585.576</v>
+        <v>418630.444</v>
       </c>
       <c r="C417">
         <v>12575.647</v>
@@ -56548,7 +56548,7 @@
         <v>60</v>
       </c>
       <c r="B418">
-        <v>396598.64</v>
+        <v>417643.105</v>
       </c>
       <c r="C418">
         <v>12452.093</v>
@@ -56682,7 +56682,7 @@
         <v>61</v>
       </c>
       <c r="B419">
-        <v>366961.505</v>
+        <v>389156.364</v>
       </c>
       <c r="C419">
         <v>12957.344</v>
@@ -56816,7 +56816,7 @@
         <v>62</v>
       </c>
       <c r="B420">
-        <v>410306.455</v>
+        <v>433860.895</v>
       </c>
       <c r="C420">
         <v>13581.08</v>
@@ -56950,7 +56950,7 @@
         <v>63</v>
       </c>
       <c r="B421">
-        <v>490874.445</v>
+        <v>513484.626</v>
       </c>
       <c r="C421">
         <v>16051.887</v>
@@ -57084,7 +57084,7 @@
         <v>44</v>
       </c>
       <c r="B422">
-        <v>701577.3320000001</v>
+        <v>745276.064</v>
       </c>
       <c r="C422">
         <v>12164.966</v>
@@ -57218,7 +57218,7 @@
         <v>45</v>
       </c>
       <c r="B423">
-        <v>766009.052</v>
+        <v>808857.648</v>
       </c>
       <c r="C423">
         <v>13239.598</v>
@@ -57352,7 +57352,7 @@
         <v>46</v>
       </c>
       <c r="B424">
-        <v>830975.702</v>
+        <v>876715.179</v>
       </c>
       <c r="C424">
         <v>13660.886</v>
@@ -57486,7 +57486,7 @@
         <v>47</v>
       </c>
       <c r="B425">
-        <v>914245.276</v>
+        <v>962092.49</v>
       </c>
       <c r="C425">
         <v>15618.323</v>
@@ -57620,7 +57620,7 @@
         <v>48</v>
       </c>
       <c r="B426">
-        <v>989525.917</v>
+        <v>1041389.526</v>
       </c>
       <c r="C426">
         <v>20309.53</v>
@@ -57754,7 +57754,7 @@
         <v>49</v>
       </c>
       <c r="B427">
-        <v>1059728.999</v>
+        <v>1101413.514</v>
       </c>
       <c r="C427">
         <v>17942.782</v>
@@ -57888,7 +57888,7 @@
         <v>50</v>
       </c>
       <c r="B428">
-        <v>1065216.181</v>
+        <v>1122552.343</v>
       </c>
       <c r="C428">
         <v>16521.719</v>
@@ -58022,7 +58022,7 @@
         <v>51</v>
       </c>
       <c r="B429">
-        <v>1181836.092</v>
+        <v>1246778.205</v>
       </c>
       <c r="C429">
         <v>18208.152</v>
@@ -58156,7 +58156,7 @@
         <v>52</v>
       </c>
       <c r="B430">
-        <v>1301385.397</v>
+        <v>1366714.785</v>
       </c>
       <c r="C430">
         <v>15971.675</v>
@@ -58290,7 +58290,7 @@
         <v>53</v>
       </c>
       <c r="B431">
-        <v>1406218.191</v>
+        <v>1470722.454</v>
       </c>
       <c r="C431">
         <v>19991.742</v>
@@ -58424,7 +58424,7 @@
         <v>54</v>
       </c>
       <c r="B432">
-        <v>1457189.13</v>
+        <v>1538948.308</v>
       </c>
       <c r="C432">
         <v>20459.945</v>
@@ -58558,7 +58558,7 @@
         <v>55</v>
       </c>
       <c r="B433">
-        <v>1546986.547</v>
+        <v>1653825.245</v>
       </c>
       <c r="C433">
         <v>21947.614</v>
@@ -58692,7 +58692,7 @@
         <v>56</v>
       </c>
       <c r="B434">
-        <v>1657013.994</v>
+        <v>1767528.141</v>
       </c>
       <c r="C434">
         <v>23811.396</v>
@@ -58826,7 +58826,7 @@
         <v>57</v>
       </c>
       <c r="B435">
-        <v>1780431.787</v>
+        <v>1907660.787</v>
       </c>
       <c r="C435">
         <v>27947.829</v>
@@ -58960,7 +58960,7 @@
         <v>58</v>
       </c>
       <c r="B436">
-        <v>1965978.463</v>
+        <v>2093946.678</v>
       </c>
       <c r="C436">
         <v>28253.233</v>
@@ -59094,7 +59094,7 @@
         <v>59</v>
       </c>
       <c r="B437">
-        <v>2109499.554</v>
+        <v>2243797.97</v>
       </c>
       <c r="C437">
         <v>26636.126</v>
@@ -59228,7 +59228,7 @@
         <v>60</v>
       </c>
       <c r="B438">
-        <v>2136626.396</v>
+        <v>2277623.646</v>
       </c>
       <c r="C438">
         <v>26768.775</v>
@@ -59362,7 +59362,7 @@
         <v>61</v>
       </c>
       <c r="B439">
-        <v>2056113.332</v>
+        <v>2202009.659</v>
       </c>
       <c r="C439">
         <v>29053.797</v>
@@ -59496,7 +59496,7 @@
         <v>62</v>
       </c>
       <c r="B440">
-        <v>2274388.891</v>
+        <v>2429059.19</v>
       </c>
       <c r="C440">
         <v>34889.433</v>
@@ -59630,7 +59630,7 @@
         <v>63</v>
       </c>
       <c r="B441">
-        <v>2512108.826</v>
+        <v>2647537.325</v>
       </c>
       <c r="C441">
         <v>40049.283</v>
@@ -59764,7 +59764,7 @@
         <v>44</v>
       </c>
       <c r="B442">
-        <v>187078.427</v>
+        <v>194702.587</v>
       </c>
       <c r="C442">
         <v>18287.844</v>
@@ -59898,7 +59898,7 @@
         <v>45</v>
       </c>
       <c r="B443">
-        <v>204278.89</v>
+        <v>211573.085</v>
       </c>
       <c r="C443">
         <v>18036.829</v>
@@ -60032,7 +60032,7 @@
         <v>46</v>
       </c>
       <c r="B444">
-        <v>217783.793</v>
+        <v>224670.009</v>
       </c>
       <c r="C444">
         <v>19228.025</v>
@@ -60166,7 +60166,7 @@
         <v>47</v>
       </c>
       <c r="B445">
-        <v>241279.348</v>
+        <v>247570.707</v>
       </c>
       <c r="C445">
         <v>24408.316</v>
@@ -60300,7 +60300,7 @@
         <v>48</v>
       </c>
       <c r="B446">
-        <v>266894.157</v>
+        <v>273767.219</v>
       </c>
       <c r="C446">
         <v>28609.488</v>
@@ -60434,7 +60434,7 @@
         <v>49</v>
       </c>
       <c r="B447">
-        <v>292142.195</v>
+        <v>295672.714</v>
       </c>
       <c r="C447">
         <v>31809.824</v>
@@ -60568,7 +60568,7 @@
         <v>50</v>
       </c>
       <c r="B448">
-        <v>304731.223</v>
+        <v>313887.408</v>
       </c>
       <c r="C448">
         <v>33426.391</v>
@@ -60702,7 +60702,7 @@
         <v>51</v>
       </c>
       <c r="B449">
-        <v>321240.459</v>
+        <v>330336.987</v>
       </c>
       <c r="C449">
         <v>33815.636</v>
@@ -60836,7 +60836,7 @@
         <v>52</v>
       </c>
       <c r="B450">
-        <v>365451.51</v>
+        <v>373422.483</v>
       </c>
       <c r="C450">
         <v>41931.116</v>
@@ -60970,7 +60970,7 @@
         <v>53</v>
       </c>
       <c r="B451">
-        <v>385112.991</v>
+        <v>391811.873</v>
       </c>
       <c r="C451">
         <v>40817.073</v>
@@ -61104,7 +61104,7 @@
         <v>54</v>
       </c>
       <c r="B452">
-        <v>397292.903</v>
+        <v>407368.813</v>
       </c>
       <c r="C452">
         <v>41676.931</v>
@@ -61238,7 +61238,7 @@
         <v>55</v>
       </c>
       <c r="B453">
-        <v>429427.695</v>
+        <v>446642.55</v>
       </c>
       <c r="C453">
         <v>48231.032</v>
@@ -61372,7 +61372,7 @@
         <v>56</v>
       </c>
       <c r="B454">
-        <v>449764.425</v>
+        <v>473124.974</v>
       </c>
       <c r="C454">
         <v>48679.878</v>
@@ -61506,7 +61506,7 @@
         <v>57</v>
       </c>
       <c r="B455">
-        <v>496589.703</v>
+        <v>523618.87</v>
       </c>
       <c r="C455">
         <v>68341.944</v>
@@ -61640,7 +61640,7 @@
         <v>58</v>
       </c>
       <c r="B456">
-        <v>556739.714</v>
+        <v>582788.393</v>
       </c>
       <c r="C456">
         <v>82060.848</v>
@@ -61774,7 +61774,7 @@
         <v>59</v>
       </c>
       <c r="B457">
-        <v>606391.49</v>
+        <v>633756.559</v>
       </c>
       <c r="C457">
         <v>84100.47199999999</v>
@@ -61908,7 +61908,7 @@
         <v>60</v>
       </c>
       <c r="B458">
-        <v>636184.876</v>
+        <v>666792.312</v>
       </c>
       <c r="C458">
         <v>90836.36500000001</v>
@@ -62042,7 +62042,7 @@
         <v>61</v>
       </c>
       <c r="B459">
-        <v>627644.969</v>
+        <v>660773.488</v>
       </c>
       <c r="C459">
         <v>93412.798</v>
@@ -62176,7 +62176,7 @@
         <v>62</v>
       </c>
       <c r="B460">
-        <v>680615.7709999999</v>
+        <v>714950.456</v>
       </c>
       <c r="C460">
         <v>100251.803</v>
@@ -62310,7 +62310,7 @@
         <v>63</v>
       </c>
       <c r="B461">
-        <v>781049.87</v>
+        <v>810009.6580000001</v>
       </c>
       <c r="C461">
         <v>119876.831</v>
@@ -62444,7 +62444,7 @@
         <v>44</v>
       </c>
       <c r="B462">
-        <v>106603.964</v>
+        <v>112007.781</v>
       </c>
       <c r="C462">
         <v>3453.678</v>
@@ -62578,7 +62578,7 @@
         <v>45</v>
       </c>
       <c r="B463">
-        <v>115606.66</v>
+        <v>120875.013</v>
       </c>
       <c r="C463">
         <v>3896.763</v>
@@ -62712,7 +62712,7 @@
         <v>46</v>
       </c>
       <c r="B464">
-        <v>127230.474</v>
+        <v>132441.602</v>
       </c>
       <c r="C464">
         <v>4314.812</v>
@@ -62846,7 +62846,7 @@
         <v>47</v>
       </c>
       <c r="B465">
-        <v>130563.125</v>
+        <v>135514.589</v>
       </c>
       <c r="C465">
         <v>4642.523</v>
@@ -62980,7 +62980,7 @@
         <v>48</v>
       </c>
       <c r="B466">
-        <v>139400.371</v>
+        <v>144682.044</v>
       </c>
       <c r="C466">
         <v>5409.374</v>
@@ -63114,7 +63114,7 @@
         <v>49</v>
       </c>
       <c r="B467">
-        <v>141744.863</v>
+        <v>145383.412</v>
       </c>
       <c r="C467">
         <v>4687.205</v>
@@ -63248,7 +63248,7 @@
         <v>50</v>
       </c>
       <c r="B468">
-        <v>145485.714</v>
+        <v>151480.759</v>
       </c>
       <c r="C468">
         <v>4588.455</v>
@@ -63382,7 +63382,7 @@
         <v>51</v>
       </c>
       <c r="B469">
-        <v>156976.823</v>
+        <v>163373.154</v>
       </c>
       <c r="C469">
         <v>6253.43</v>
@@ -63516,7 +63516,7 @@
         <v>52</v>
       </c>
       <c r="B470">
-        <v>166196.129</v>
+        <v>172093.86</v>
       </c>
       <c r="C470">
         <v>5616.179</v>
@@ -63650,7 +63650,7 @@
         <v>53</v>
       </c>
       <c r="B471">
-        <v>178636.659</v>
+        <v>184194.207</v>
       </c>
       <c r="C471">
         <v>5235.181</v>
@@ -63784,7 +63784,7 @@
         <v>54</v>
       </c>
       <c r="B472">
-        <v>188950.771</v>
+        <v>196418.434</v>
       </c>
       <c r="C472">
         <v>6336.14</v>
@@ -63918,7 +63918,7 @@
         <v>55</v>
       </c>
       <c r="B473">
-        <v>193931.198</v>
+        <v>204779.891</v>
       </c>
       <c r="C473">
         <v>5621.084</v>
@@ -64052,7 +64052,7 @@
         <v>56</v>
       </c>
       <c r="B474">
-        <v>207436.643</v>
+        <v>220647.413</v>
       </c>
       <c r="C474">
         <v>5314.254</v>
@@ -64186,7 +64186,7 @@
         <v>57</v>
       </c>
       <c r="B475">
-        <v>229765.063</v>
+        <v>245268.773</v>
       </c>
       <c r="C475">
         <v>6680.544</v>
@@ -64320,7 +64320,7 @@
         <v>58</v>
       </c>
       <c r="B476">
-        <v>248253.966</v>
+        <v>263437.464</v>
       </c>
       <c r="C476">
         <v>7431.354</v>
@@ -64454,7 +64454,7 @@
         <v>59</v>
       </c>
       <c r="B477">
-        <v>257458.604</v>
+        <v>273244.597</v>
       </c>
       <c r="C477">
         <v>8411.032999999999</v>
@@ -64588,7 +64588,7 @@
         <v>60</v>
       </c>
       <c r="B478">
-        <v>258641.891</v>
+        <v>274913.378</v>
       </c>
       <c r="C478">
         <v>8920.973</v>
@@ -64722,7 +64722,7 @@
         <v>61</v>
       </c>
       <c r="B479">
-        <v>244628.383</v>
+        <v>261147.757</v>
       </c>
       <c r="C479">
         <v>9498.839</v>
@@ -64856,7 +64856,7 @@
         <v>62</v>
       </c>
       <c r="B480">
-        <v>273176.324</v>
+        <v>290680.819</v>
       </c>
       <c r="C480">
         <v>10823.009</v>
@@ -64990,7 +64990,7 @@
         <v>63</v>
       </c>
       <c r="B481">
-        <v>298139.559</v>
+        <v>312095.989</v>
       </c>
       <c r="C481">
         <v>12228.237</v>
@@ -65124,7 +65124,7 @@
         <v>44</v>
       </c>
       <c r="B482">
-        <v>554420.079</v>
+        <v>586904.052</v>
       </c>
       <c r="C482">
         <v>4856.436</v>
@@ -65258,7 +65258,7 @@
         <v>45</v>
       </c>
       <c r="B483">
-        <v>628590.87</v>
+        <v>661531.89</v>
       </c>
       <c r="C483">
         <v>4452.27</v>
@@ -65392,7 +65392,7 @@
         <v>46</v>
       </c>
       <c r="B484">
-        <v>683650.678</v>
+        <v>716734.067</v>
       </c>
       <c r="C484">
         <v>5225.019</v>
@@ -65526,7 +65526,7 @@
         <v>47</v>
       </c>
       <c r="B485">
-        <v>776506.456</v>
+        <v>810874.251</v>
       </c>
       <c r="C485">
         <v>4707.947</v>
@@ -65660,7 +65660,7 @@
         <v>48</v>
       </c>
       <c r="B486">
-        <v>857042.2560000001</v>
+        <v>895399.441</v>
       </c>
       <c r="C486">
         <v>5061.539</v>
@@ -65794,7 +65794,7 @@
         <v>49</v>
       </c>
       <c r="B487">
-        <v>909229.583</v>
+        <v>937797.066</v>
       </c>
       <c r="C487">
         <v>4905.892</v>
@@ -65928,7 +65928,7 @@
         <v>50</v>
       </c>
       <c r="B488">
-        <v>880664.878</v>
+        <v>923239.037</v>
       </c>
       <c r="C488">
         <v>5677.43</v>
@@ -66062,7 +66062,7 @@
         <v>51</v>
       </c>
       <c r="B489">
-        <v>978608.77</v>
+        <v>1024860.873</v>
       </c>
       <c r="C489">
         <v>6292.757</v>
@@ -66196,7 +66196,7 @@
         <v>52</v>
       </c>
       <c r="B490">
-        <v>1046104.927</v>
+        <v>1088836.25</v>
       </c>
       <c r="C490">
         <v>5308.138</v>
@@ -66330,7 +66330,7 @@
         <v>53</v>
       </c>
       <c r="B491">
-        <v>1147767.274</v>
+        <v>1186169.356</v>
       </c>
       <c r="C491">
         <v>6033.808</v>
@@ -66464,7 +66464,7 @@
         <v>54</v>
       </c>
       <c r="B492">
-        <v>1153511.847</v>
+        <v>1202962.967</v>
       </c>
       <c r="C492">
         <v>6569.687</v>
@@ -66598,7 +66598,7 @@
         <v>55</v>
       </c>
       <c r="B493">
-        <v>1235638.562</v>
+        <v>1305787.554</v>
       </c>
       <c r="C493">
         <v>7248.144</v>
@@ -66732,7 +66732,7 @@
         <v>56</v>
       </c>
       <c r="B494">
-        <v>1352851.487</v>
+        <v>1439764.708</v>
       </c>
       <c r="C494">
         <v>7230.158</v>
@@ -66866,7 +66866,7 @@
         <v>57</v>
       </c>
       <c r="B495">
-        <v>1446648.139</v>
+        <v>1554614.261</v>
       </c>
       <c r="C495">
         <v>7408.155</v>
@@ -67000,7 +67000,7 @@
         <v>58</v>
       </c>
       <c r="B496">
-        <v>1607086.326</v>
+        <v>1712269.217</v>
       </c>
       <c r="C496">
         <v>8014.758</v>
@@ -67134,7 +67134,7 @@
         <v>59</v>
       </c>
       <c r="B497">
-        <v>1788706.611</v>
+        <v>1909026.435</v>
       </c>
       <c r="C497">
         <v>8533.486999999999</v>
@@ -67268,7 +67268,7 @@
         <v>60</v>
       </c>
       <c r="B498">
-        <v>1876149.698</v>
+        <v>2006960.645</v>
       </c>
       <c r="C498">
         <v>9460.075999999999</v>
@@ -67402,7 +67402,7 @@
         <v>61</v>
       </c>
       <c r="B499">
-        <v>1781439.295</v>
+        <v>1911995.634</v>
       </c>
       <c r="C499">
         <v>10216.598</v>
@@ -67536,7 +67536,7 @@
         <v>62</v>
       </c>
       <c r="B500">
-        <v>2002293.392</v>
+        <v>2145272.88</v>
       </c>
       <c r="C500">
         <v>10082.053</v>
@@ -67670,7 +67670,7 @@
         <v>63</v>
       </c>
       <c r="B501">
-        <v>2226592.978</v>
+        <v>2356106.867</v>
       </c>
       <c r="C501">
         <v>11523.333</v>
@@ -67804,7 +67804,7 @@
         <v>44</v>
       </c>
       <c r="B502">
-        <v>259265.02</v>
+        <v>273250.081</v>
       </c>
       <c r="C502">
         <v>11155.124</v>
@@ -67938,7 +67938,7 @@
         <v>45</v>
       </c>
       <c r="B503">
-        <v>283664.412</v>
+        <v>297157.661</v>
       </c>
       <c r="C503">
         <v>12440.027</v>
@@ -68072,7 +68072,7 @@
         <v>46</v>
       </c>
       <c r="B504">
-        <v>315694.832</v>
+        <v>329925.231</v>
       </c>
       <c r="C504">
         <v>12820.911</v>
@@ -68206,7 +68206,7 @@
         <v>47</v>
       </c>
       <c r="B505">
-        <v>345483.672</v>
+        <v>359257.637</v>
       </c>
       <c r="C505">
         <v>14040.434</v>
@@ -68340,7 +68340,7 @@
         <v>48</v>
       </c>
       <c r="B506">
-        <v>374868.012</v>
+        <v>390063.065</v>
       </c>
       <c r="C506">
         <v>15835.668</v>
@@ -68474,7 +68474,7 @@
         <v>49</v>
       </c>
       <c r="B507">
-        <v>405254.348</v>
+        <v>416183.439</v>
       </c>
       <c r="C507">
         <v>17205.733</v>
@@ -68608,7 +68608,7 @@
         <v>50</v>
       </c>
       <c r="B508">
-        <v>404343.609</v>
+        <v>421178.23</v>
       </c>
       <c r="C508">
         <v>17625.433</v>
@@ -68742,7 +68742,7 @@
         <v>51</v>
       </c>
       <c r="B509">
-        <v>441534.343</v>
+        <v>459442.018</v>
       </c>
       <c r="C509">
         <v>18916.38</v>
@@ -68876,7 +68876,7 @@
         <v>52</v>
       </c>
       <c r="B510">
-        <v>492242.937</v>
+        <v>509381.44</v>
       </c>
       <c r="C510">
         <v>19221.882</v>
@@ -69010,7 +69010,7 @@
         <v>53</v>
       </c>
       <c r="B511">
-        <v>546370.2439999999</v>
+        <v>562698.245</v>
       </c>
       <c r="C511">
         <v>22548.802</v>
@@ -69144,7 +69144,7 @@
         <v>54</v>
       </c>
       <c r="B512">
-        <v>552339.737</v>
+        <v>573288.058</v>
       </c>
       <c r="C512">
         <v>22836.748</v>
@@ -69278,7 +69278,7 @@
         <v>55</v>
       </c>
       <c r="B513">
-        <v>574212.166</v>
+        <v>603496.6360000001</v>
       </c>
       <c r="C513">
         <v>23058.944</v>
@@ -69412,7 +69412,7 @@
         <v>56</v>
       </c>
       <c r="B514">
-        <v>614241.986</v>
+        <v>649219.142</v>
       </c>
       <c r="C514">
         <v>25517.257</v>
@@ -69546,7 +69546,7 @@
         <v>57</v>
       </c>
       <c r="B515">
-        <v>663643.821</v>
+        <v>705395.085</v>
       </c>
       <c r="C515">
         <v>26912.961</v>
@@ -69680,7 +69680,7 @@
         <v>58</v>
       </c>
       <c r="B516">
-        <v>751138.056</v>
+        <v>794537.4399999999</v>
       </c>
       <c r="C516">
         <v>28053.992</v>
@@ -69814,7 +69814,7 @@
         <v>59</v>
       </c>
       <c r="B517">
-        <v>803728.819</v>
+        <v>849556.003</v>
       </c>
       <c r="C517">
         <v>29959.675</v>
@@ -69948,7 +69948,7 @@
         <v>60</v>
       </c>
       <c r="B518">
-        <v>830019.358</v>
+        <v>879952.946</v>
       </c>
       <c r="C518">
         <v>29811.156</v>
@@ -70082,7 +70082,7 @@
         <v>61</v>
       </c>
       <c r="B519">
-        <v>785434.202</v>
+        <v>836227.888</v>
       </c>
       <c r="C519">
         <v>32115.264</v>
@@ -70216,7 +70216,7 @@
         <v>62</v>
       </c>
       <c r="B520">
-        <v>853370.166</v>
+        <v>905739.044</v>
       </c>
       <c r="C520">
         <v>36048.059</v>
@@ -70350,7 +70350,7 @@
         <v>63</v>
       </c>
       <c r="B521">
-        <v>961559.468</v>
+        <v>1007777.219</v>
       </c>
       <c r="C521">
         <v>38173.62</v>
@@ -70484,7 +70484,7 @@
         <v>44</v>
       </c>
       <c r="B522">
-        <v>139193.878</v>
+        <v>147463.428</v>
       </c>
       <c r="C522">
         <v>4411.773</v>
@@ -70618,7 +70618,7 @@
         <v>45</v>
       </c>
       <c r="B523">
-        <v>159544.924</v>
+        <v>168260.812</v>
       </c>
       <c r="C523">
         <v>4469.746</v>
@@ -70752,7 +70752,7 @@
         <v>46</v>
       </c>
       <c r="B524">
-        <v>181001.245</v>
+        <v>190245.619</v>
       </c>
       <c r="C524">
         <v>4367.144</v>
@@ -70886,7 +70886,7 @@
         <v>47</v>
       </c>
       <c r="B525">
-        <v>203532.323</v>
+        <v>212982.938</v>
       </c>
       <c r="C525">
         <v>4549.42</v>
@@ -71020,7 +71020,7 @@
         <v>48</v>
       </c>
       <c r="B526">
-        <v>225636.318</v>
+        <v>236093.573</v>
       </c>
       <c r="C526">
         <v>5192.745</v>
@@ -71154,7 +71154,7 @@
         <v>49</v>
       </c>
       <c r="B527">
-        <v>247757.432</v>
+        <v>255436.887</v>
       </c>
       <c r="C527">
         <v>5036.163</v>
@@ -71288,7 +71288,7 @@
         <v>50</v>
       </c>
       <c r="B528">
-        <v>251830.759</v>
+        <v>263300.929</v>
       </c>
       <c r="C528">
         <v>4908.442</v>
@@ -71422,7 +71422,7 @@
         <v>51</v>
       </c>
       <c r="B529">
-        <v>285329.086</v>
+        <v>298514.134</v>
       </c>
       <c r="C529">
         <v>6110.187</v>
@@ -71556,7 +71556,7 @@
         <v>52</v>
       </c>
       <c r="B530">
-        <v>322153.724</v>
+        <v>335645.424</v>
       </c>
       <c r="C530">
         <v>5928.622</v>
@@ -71690,7 +71690,7 @@
         <v>53</v>
       </c>
       <c r="B531">
-        <v>352301.487</v>
+        <v>365133.662</v>
       </c>
       <c r="C531">
         <v>7890.054</v>
@@ -71824,7 +71824,7 @@
         <v>54</v>
       </c>
       <c r="B532">
-        <v>363922.242</v>
+        <v>380030.009</v>
       </c>
       <c r="C532">
         <v>8143.238</v>
@@ -71958,7 +71958,7 @@
         <v>55</v>
       </c>
       <c r="B533">
-        <v>385999.576</v>
+        <v>409014.724</v>
       </c>
       <c r="C533">
         <v>9140.405000000001</v>
@@ -72092,7 +72092,7 @@
         <v>56</v>
       </c>
       <c r="B534">
-        <v>434745.733</v>
+        <v>462967.083</v>
       </c>
       <c r="C534">
         <v>10161.471</v>
@@ -72226,7 +72226,7 @@
         <v>57</v>
       </c>
       <c r="B535">
-        <v>477777.908</v>
+        <v>511494.981</v>
       </c>
       <c r="C535">
         <v>10849.409</v>
@@ -72360,7 +72360,7 @@
         <v>58</v>
       </c>
       <c r="B536">
-        <v>523382.36</v>
+        <v>556324.848</v>
       </c>
       <c r="C536">
         <v>11732.324</v>
@@ -72494,7 +72494,7 @@
         <v>59</v>
       </c>
       <c r="B537">
-        <v>574691.378</v>
+        <v>611367.75</v>
       </c>
       <c r="C537">
         <v>13132.114</v>
@@ -72628,7 +72628,7 @@
         <v>60</v>
       </c>
       <c r="B538">
-        <v>583875.018</v>
+        <v>622974.295</v>
       </c>
       <c r="C538">
         <v>12608.947</v>
@@ -72762,7 +72762,7 @@
         <v>61</v>
       </c>
       <c r="B539">
-        <v>555304.062</v>
+        <v>596523.55</v>
       </c>
       <c r="C539">
         <v>14728.526</v>
@@ -72896,7 +72896,7 @@
         <v>62</v>
       </c>
       <c r="B540">
-        <v>610204.333</v>
+        <v>654820.965</v>
       </c>
       <c r="C540">
         <v>15710.748</v>
@@ -73030,7 +73030,7 @@
         <v>63</v>
       </c>
       <c r="B541">
-        <v>677955.482</v>
+        <v>717898.041</v>
       </c>
       <c r="C541">
         <v>16879.713</v>
@@ -73164,7 +73164,7 @@
         <v>44</v>
       </c>
       <c r="B542">
-        <v>133303.317</v>
+        <v>139659.503</v>
       </c>
       <c r="C542">
         <v>5312.262</v>
@@ -73298,7 +73298,7 @@
         <v>45</v>
       </c>
       <c r="B543">
-        <v>155607.207</v>
+        <v>161995.49</v>
       </c>
       <c r="C543">
         <v>6090.359</v>
@@ -73432,7 +73432,7 @@
         <v>46</v>
       </c>
       <c r="B544">
-        <v>172789.504</v>
+        <v>179099.443</v>
       </c>
       <c r="C544">
         <v>6166.454</v>
@@ -73566,7 +73566,7 @@
         <v>47</v>
       </c>
       <c r="B545">
-        <v>192816.081</v>
+        <v>198986.044</v>
       </c>
       <c r="C545">
         <v>6761.799</v>
@@ -73700,7 +73700,7 @@
         <v>48</v>
       </c>
       <c r="B546">
-        <v>209828.83</v>
+        <v>216450.556</v>
       </c>
       <c r="C546">
         <v>7357.653</v>
@@ -73834,7 +73834,7 @@
         <v>49</v>
       </c>
       <c r="B547">
-        <v>227269.423</v>
+        <v>231302.314</v>
       </c>
       <c r="C547">
         <v>8155.813</v>
@@ -73968,7 +73968,7 @@
         <v>50</v>
       </c>
       <c r="B548">
-        <v>225436.345</v>
+        <v>233448.116</v>
       </c>
       <c r="C548">
         <v>7454.802</v>
@@ -74102,7 +74102,7 @@
         <v>51</v>
       </c>
       <c r="B549">
-        <v>249740.971</v>
+        <v>258099.29</v>
       </c>
       <c r="C549">
         <v>9566.688</v>
@@ -74236,7 +74236,7 @@
         <v>52</v>
       </c>
       <c r="B550">
-        <v>274830.425</v>
+        <v>283101.931</v>
       </c>
       <c r="C550">
         <v>9004.288</v>
@@ -74370,7 +74370,7 @@
         <v>53</v>
       </c>
       <c r="B551">
-        <v>302344.694</v>
+        <v>309419.04</v>
       </c>
       <c r="C551">
         <v>9810.793</v>
@@ -74504,7 +74504,7 @@
         <v>54</v>
       </c>
       <c r="B552">
-        <v>312615.489</v>
+        <v>323119.019</v>
       </c>
       <c r="C552">
         <v>10640.52</v>
@@ -74638,7 +74638,7 @@
         <v>55</v>
       </c>
       <c r="B553">
-        <v>336082.252</v>
+        <v>351323.606</v>
       </c>
       <c r="C553">
         <v>12274.932</v>
@@ -74772,7 +74772,7 @@
         <v>56</v>
       </c>
       <c r="B554">
-        <v>375738.06</v>
+        <v>394731.6</v>
       </c>
       <c r="C554">
         <v>14568.721</v>
@@ -74906,7 +74906,7 @@
         <v>57</v>
       </c>
       <c r="B555">
-        <v>424122.109</v>
+        <v>449922.813</v>
       </c>
       <c r="C555">
         <v>16052.108</v>
@@ -75040,7 +75040,7 @@
         <v>58</v>
       </c>
       <c r="B556">
-        <v>489984.383</v>
+        <v>515900.848</v>
       </c>
       <c r="C556">
         <v>19040.028</v>
@@ -75174,7 +75174,7 @@
         <v>59</v>
       </c>
       <c r="B557">
-        <v>529176.512</v>
+        <v>557795.952</v>
       </c>
       <c r="C557">
         <v>22093.38</v>
@@ -75308,7 +75308,7 @@
         <v>60</v>
       </c>
       <c r="B558">
-        <v>529761.988</v>
+        <v>559124.997</v>
       </c>
       <c r="C558">
         <v>21327.007</v>
@@ -75442,7 +75442,7 @@
         <v>61</v>
       </c>
       <c r="B559">
-        <v>527883.557</v>
+        <v>560695.699</v>
       </c>
       <c r="C559">
         <v>24302.783</v>
@@ -75576,7 +75576,7 @@
         <v>62</v>
       </c>
       <c r="B560">
-        <v>584797.421</v>
+        <v>619267.1409999999</v>
       </c>
       <c r="C560">
         <v>28139.004</v>
@@ -75710,7 +75710,7 @@
         <v>63</v>
       </c>
       <c r="B561">
-        <v>664986.4399999999</v>
+        <v>694389.681</v>
       </c>
       <c r="C561">
         <v>32245.485</v>
@@ -75844,7 +75844,7 @@
         <v>44</v>
       </c>
       <c r="B562">
-        <v>162656.498</v>
+        <v>167407.568</v>
       </c>
       <c r="C562">
         <v>3655.808</v>
@@ -75978,7 +75978,7 @@
         <v>45</v>
       </c>
       <c r="B563">
-        <v>202069.357</v>
+        <v>206915.802</v>
       </c>
       <c r="C563">
         <v>4463.886</v>
@@ -76112,7 +76112,7 @@
         <v>46</v>
       </c>
       <c r="B564">
-        <v>241591.804</v>
+        <v>246188.648</v>
       </c>
       <c r="C564">
         <v>4824.429</v>
@@ -76246,7 +76246,7 @@
         <v>47</v>
       </c>
       <c r="B565">
-        <v>286881.329</v>
+        <v>291562.204</v>
       </c>
       <c r="C565">
         <v>5336.878</v>
@@ -76380,7 +76380,7 @@
         <v>48</v>
       </c>
       <c r="B566">
-        <v>324523.128</v>
+        <v>329264.284</v>
       </c>
       <c r="C566">
         <v>5537.263</v>
@@ -76514,7 +76514,7 @@
         <v>49</v>
       </c>
       <c r="B567">
-        <v>390553.693</v>
+        <v>393473.783</v>
       </c>
       <c r="C567">
         <v>5083.866</v>
@@ -76648,7 +76648,7 @@
         <v>50</v>
       </c>
       <c r="B568">
-        <v>354149.363</v>
+        <v>360228.497</v>
       </c>
       <c r="C568">
         <v>5236.631</v>
@@ -76782,7 +76782,7 @@
         <v>51</v>
       </c>
       <c r="B569">
-        <v>418051.842</v>
+        <v>424309.609</v>
       </c>
       <c r="C569">
         <v>5956.812</v>
@@ -76916,7 +76916,7 @@
         <v>52</v>
       </c>
       <c r="B570">
-        <v>517656.397</v>
+        <v>522753.394</v>
       </c>
       <c r="C570">
         <v>6158.691</v>
@@ -77050,7 +77050,7 @@
         <v>53</v>
       </c>
       <c r="B571">
-        <v>554171.855</v>
+        <v>558895.51</v>
       </c>
       <c r="C571">
         <v>7134.848</v>
@@ -77184,7 +77184,7 @@
         <v>54</v>
       </c>
       <c r="B572">
-        <v>531688.286</v>
+        <v>539172.2709999999</v>
       </c>
       <c r="C572">
         <v>7224.774</v>
@@ -77318,7 +77318,7 @@
         <v>55</v>
       </c>
       <c r="B573">
-        <v>541650.175</v>
+        <v>552382.1409999999</v>
       </c>
       <c r="C573">
         <v>7110.027</v>
@@ -77452,7 +77452,7 @@
         <v>56</v>
       </c>
       <c r="B574">
-        <v>403745.115</v>
+        <v>416944.114</v>
       </c>
       <c r="C574">
         <v>7525.054</v>
@@ -77586,7 +77586,7 @@
         <v>57</v>
       </c>
       <c r="B575">
-        <v>402355.227</v>
+        <v>416897.875</v>
       </c>
       <c r="C575">
         <v>8405.258</v>
@@ -77720,7 +77720,7 @@
         <v>58</v>
       </c>
       <c r="B576">
-        <v>446274.604</v>
+        <v>459110.824</v>
       </c>
       <c r="C576">
         <v>9281.942999999999</v>
@@ -77854,7 +77854,7 @@
         <v>59</v>
       </c>
       <c r="B577">
-        <v>457928.594</v>
+        <v>471565.25</v>
       </c>
       <c r="C577">
         <v>10175.321</v>
@@ -77988,7 +77988,7 @@
         <v>60</v>
       </c>
       <c r="B578">
-        <v>470623.146</v>
+        <v>485601.894</v>
       </c>
       <c r="C578">
         <v>10267.116</v>
@@ -78122,7 +78122,7 @@
         <v>61</v>
       </c>
       <c r="B579">
-        <v>465671.477</v>
+        <v>480708.217</v>
       </c>
       <c r="C579">
         <v>11008.609</v>
@@ -78256,7 +78256,7 @@
         <v>62</v>
       </c>
       <c r="B580">
-        <v>572612.052</v>
+        <v>590758.0060000001</v>
       </c>
       <c r="C580">
         <v>11964.051</v>
@@ -78390,7 +78390,7 @@
         <v>63</v>
       </c>
       <c r="B581">
-        <v>705125.079</v>
+        <v>720558.157</v>
       </c>
       <c r="C581">
         <v>12040.207</v>
@@ -78524,7 +78524,7 @@
         <v>44</v>
       </c>
       <c r="B582">
-        <v>265893.459</v>
+        <v>277974.68</v>
       </c>
       <c r="C582">
         <v>8349.564</v>
@@ -78658,7 +78658,7 @@
         <v>45</v>
       </c>
       <c r="B583">
-        <v>298364.635</v>
+        <v>310251.933</v>
       </c>
       <c r="C583">
         <v>10244.979</v>
@@ -78792,7 +78792,7 @@
         <v>46</v>
       </c>
       <c r="B584">
-        <v>326589.613</v>
+        <v>338462.253</v>
       </c>
       <c r="C584">
         <v>8739.637000000001</v>
@@ -78926,7 +78926,7 @@
         <v>47</v>
       </c>
       <c r="B585">
-        <v>361090.577</v>
+        <v>373009.194</v>
       </c>
       <c r="C585">
         <v>9639.646000000001</v>
@@ -79060,7 +79060,7 @@
         <v>48</v>
       </c>
       <c r="B586">
-        <v>387232.99</v>
+        <v>400482.179</v>
       </c>
       <c r="C586">
         <v>12351.397</v>
@@ -79194,7 +79194,7 @@
         <v>49</v>
       </c>
       <c r="B587">
-        <v>424723.092</v>
+        <v>433925.004</v>
       </c>
       <c r="C587">
         <v>13899.778</v>
@@ -79328,7 +79328,7 @@
         <v>50</v>
       </c>
       <c r="B588">
-        <v>390871.028</v>
+        <v>405946.345</v>
       </c>
       <c r="C588">
         <v>12744.334</v>
@@ -79462,7 +79462,7 @@
         <v>51</v>
       </c>
       <c r="B589">
-        <v>415373.288</v>
+        <v>430095.618</v>
       </c>
       <c r="C589">
         <v>15091.477</v>
@@ -79596,7 +79596,7 @@
         <v>52</v>
       </c>
       <c r="B590">
-        <v>432712.146</v>
+        <v>446243.834</v>
       </c>
       <c r="C590">
         <v>16142.087</v>
@@ -79730,7 +79730,7 @@
         <v>53</v>
       </c>
       <c r="B591">
-        <v>473619.186</v>
+        <v>487018.968</v>
       </c>
       <c r="C591">
         <v>17863.301</v>
@@ -79864,7 +79864,7 @@
         <v>54</v>
       </c>
       <c r="B592">
-        <v>479938.958</v>
+        <v>496345.36</v>
       </c>
       <c r="C592">
         <v>14571.09</v>
@@ -79998,7 +79998,7 @@
         <v>55</v>
       </c>
       <c r="B593">
-        <v>510894.23</v>
+        <v>535486.3149999999</v>
       </c>
       <c r="C593">
         <v>17064.332</v>
@@ -80132,7 +80132,7 @@
         <v>56</v>
       </c>
       <c r="B594">
-        <v>555700.403</v>
+        <v>585839.219</v>
       </c>
       <c r="C594">
         <v>16710.309</v>
@@ -80266,7 +80266,7 @@
         <v>57</v>
       </c>
       <c r="B595">
-        <v>583757.591</v>
+        <v>620282.186</v>
       </c>
       <c r="C595">
         <v>19924.387</v>
@@ -80400,7 +80400,7 @@
         <v>58</v>
       </c>
       <c r="B596">
-        <v>638077.206</v>
+        <v>672458.6800000001</v>
       </c>
       <c r="C596">
         <v>18946.266</v>
@@ -80534,7 +80534,7 @@
         <v>59</v>
       </c>
       <c r="B597">
-        <v>694130.921</v>
+        <v>732093.584</v>
       </c>
       <c r="C597">
         <v>19248.27</v>
@@ -80668,7 +80668,7 @@
         <v>60</v>
       </c>
       <c r="B598">
-        <v>732079.757</v>
+        <v>774653.1409999999</v>
       </c>
       <c r="C598">
         <v>17329.035</v>
@@ -80802,7 +80802,7 @@
         <v>61</v>
       </c>
       <c r="B599">
-        <v>701887.208</v>
+        <v>747059.224</v>
       </c>
       <c r="C599">
         <v>19294.794</v>
@@ -80936,7 +80936,7 @@
         <v>62</v>
       </c>
       <c r="B600">
-        <v>763045.1629999999</v>
+        <v>811672.282</v>
       </c>
       <c r="C600">
         <v>21891.817</v>
@@ -81070,7 +81070,7 @@
         <v>63</v>
       </c>
       <c r="B601">
-        <v>854256.791</v>
+        <v>896648.157</v>
       </c>
       <c r="C601">
         <v>31867.729</v>
@@ -81204,7 +81204,7 @@
         <v>44</v>
       </c>
       <c r="B602">
-        <v>49523.354</v>
+        <v>52408.932</v>
       </c>
       <c r="C602">
         <v>1973.166</v>
@@ -81338,7 +81338,7 @@
         <v>45</v>
       </c>
       <c r="B603">
-        <v>55251.3209999999</v>
+        <v>58306.898</v>
       </c>
       <c r="C603">
         <v>1853.173</v>
@@ -81472,7 +81472,7 @@
         <v>46</v>
       </c>
       <c r="B604">
-        <v>56609.063</v>
+        <v>59319.242</v>
       </c>
       <c r="C604">
         <v>2028.736</v>
@@ -81606,7 +81606,7 @@
         <v>47</v>
       </c>
       <c r="B605">
-        <v>61709.815</v>
+        <v>64518.845</v>
       </c>
       <c r="C605">
         <v>2302.184</v>
@@ -81740,7 +81740,7 @@
         <v>48</v>
       </c>
       <c r="B606">
-        <v>65554.641</v>
+        <v>68356.323</v>
       </c>
       <c r="C606">
         <v>2331.932</v>
@@ -81874,7 +81874,7 @@
         <v>49</v>
       </c>
       <c r="B607">
-        <v>70829.08100000001</v>
+        <v>72834.451</v>
       </c>
       <c r="C607">
         <v>3134.766</v>
@@ -82008,7 +82008,7 @@
         <v>50</v>
       </c>
       <c r="B608">
-        <v>71002.57000000001</v>
+        <v>74098.65300000001</v>
       </c>
       <c r="C608">
         <v>2987.783</v>
@@ -82142,7 +82142,7 @@
         <v>51</v>
       </c>
       <c r="B609">
-        <v>78072.844</v>
+        <v>81445.046</v>
       </c>
       <c r="C609">
         <v>3207.543</v>
@@ -82276,7 +82276,7 @@
         <v>52</v>
       </c>
       <c r="B610">
-        <v>84488.537</v>
+        <v>87615.50999999999</v>
       </c>
       <c r="C610">
         <v>2318.232</v>
@@ -82410,7 +82410,7 @@
         <v>53</v>
       </c>
       <c r="B611">
-        <v>91977.5</v>
+        <v>94790.7</v>
       </c>
       <c r="C611">
         <v>3824.629</v>
@@ -82544,7 +82544,7 @@
         <v>54</v>
       </c>
       <c r="B612">
-        <v>94035.174</v>
+        <v>97852.249</v>
       </c>
       <c r="C612">
         <v>3439.824</v>
@@ -82678,7 +82678,7 @@
         <v>55</v>
       </c>
       <c r="B613">
-        <v>99329.845</v>
+        <v>105277.59</v>
       </c>
       <c r="C613">
         <v>3482.125</v>
@@ -82812,7 +82812,7 @@
         <v>56</v>
       </c>
       <c r="B614">
-        <v>108595.129</v>
+        <v>115883.931</v>
       </c>
       <c r="C614">
         <v>3685.486</v>
@@ -82946,7 +82946,7 @@
         <v>57</v>
       </c>
       <c r="B615">
-        <v>116124.32</v>
+        <v>124551.976</v>
       </c>
       <c r="C615">
         <v>3883.196</v>
@@ -83080,7 +83080,7 @@
         <v>58</v>
       </c>
       <c r="B616">
-        <v>127998.622</v>
+        <v>136440.195</v>
       </c>
       <c r="C616">
         <v>3967.839</v>
@@ -83214,7 +83214,7 @@
         <v>59</v>
       </c>
       <c r="B617">
-        <v>138471.82</v>
+        <v>147752.939</v>
       </c>
       <c r="C617">
         <v>4151.021</v>
@@ -83348,7 +83348,7 @@
         <v>60</v>
       </c>
       <c r="B618">
-        <v>141054.816</v>
+        <v>150645.017</v>
       </c>
       <c r="C618">
         <v>4093.237</v>
@@ -83482,7 +83482,7 @@
         <v>61</v>
       </c>
       <c r="B619">
-        <v>133893.595</v>
+        <v>144030.666</v>
       </c>
       <c r="C619">
         <v>3981.344</v>
@@ -83616,7 +83616,7 @@
         <v>62</v>
       </c>
       <c r="B620">
-        <v>149039.474</v>
+        <v>159616.823</v>
       </c>
       <c r="C620">
         <v>4520.008</v>
@@ -83750,7 +83750,7 @@
         <v>63</v>
       </c>
       <c r="B621">
-        <v>166207.517</v>
+        <v>175097.731</v>
       </c>
       <c r="C621">
         <v>5910.568</v>
@@ -83884,7 +83884,7 @@
         <v>44</v>
       </c>
       <c r="B622">
-        <v>61276.296</v>
+        <v>65494.863</v>
       </c>
       <c r="C622">
         <v>7423.454</v>
@@ -84018,7 +84018,7 @@
         <v>45</v>
       </c>
       <c r="B623">
-        <v>66860.302</v>
+        <v>71373.761</v>
       </c>
       <c r="C623">
         <v>6755.356</v>
@@ -84152,7 +84152,7 @@
         <v>46</v>
       </c>
       <c r="B624">
-        <v>70615.001</v>
+        <v>75583.34699999999</v>
       </c>
       <c r="C624">
         <v>5520.458</v>
@@ -84286,7 +84286,7 @@
         <v>47</v>
       </c>
       <c r="B625">
-        <v>80221.611</v>
+        <v>85628.14</v>
       </c>
       <c r="C625">
         <v>7768.646</v>
@@ -84420,7 +84420,7 @@
         <v>48</v>
       </c>
       <c r="B626">
-        <v>87972.177</v>
+        <v>93882.067</v>
       </c>
       <c r="C626">
         <v>7768.035</v>
@@ -84554,7 +84554,7 @@
         <v>49</v>
       </c>
       <c r="B627">
-        <v>96945.87</v>
+        <v>102476.904</v>
       </c>
       <c r="C627">
         <v>9189.282999999999</v>
@@ -84688,7 +84688,7 @@
         <v>50</v>
       </c>
       <c r="B628">
-        <v>107018.118</v>
+        <v>114645.405</v>
       </c>
       <c r="C628">
         <v>9839.088</v>
@@ -84822,7 +84822,7 @@
         <v>51</v>
       </c>
       <c r="B629">
-        <v>121909.321</v>
+        <v>130770.085</v>
       </c>
       <c r="C629">
         <v>9659.697</v>
@@ -84956,7 +84956,7 @@
         <v>52</v>
       </c>
       <c r="B630">
-        <v>137769.972</v>
+        <v>145504.396</v>
       </c>
       <c r="C630">
         <v>8454.206</v>
@@ -85090,7 +85090,7 @@
         <v>53</v>
       </c>
       <c r="B631">
-        <v>148183.567</v>
+        <v>155885.165</v>
       </c>
       <c r="C631">
         <v>11714.424</v>
@@ -85224,7 +85224,7 @@
         <v>54</v>
       </c>
       <c r="B632">
-        <v>137779.973</v>
+        <v>145828.448</v>
       </c>
       <c r="C632">
         <v>12226.915</v>
@@ -85358,7 +85358,7 @@
         <v>55</v>
       </c>
       <c r="B633">
-        <v>147114.462</v>
+        <v>159445.709</v>
       </c>
       <c r="C633">
         <v>12049.009</v>
@@ -85492,7 +85492,7 @@
         <v>56</v>
       </c>
       <c r="B634">
-        <v>158291.107</v>
+        <v>173323.686</v>
       </c>
       <c r="C634">
         <v>13352.057</v>
@@ -85626,7 +85626,7 @@
         <v>57</v>
       </c>
       <c r="B635">
-        <v>180907.456</v>
+        <v>198636.34</v>
       </c>
       <c r="C635">
         <v>16527.411</v>
@@ -85760,7 +85760,7 @@
         <v>58</v>
       </c>
       <c r="B636">
-        <v>197846.105</v>
+        <v>215322.635</v>
       </c>
       <c r="C636">
         <v>19347.642</v>
@@ -85894,7 +85894,7 @@
         <v>59</v>
       </c>
       <c r="B637">
-        <v>208209.524</v>
+        <v>228388.213</v>
       </c>
       <c r="C637">
         <v>18297.006</v>
@@ -86028,7 +86028,7 @@
         <v>60</v>
       </c>
       <c r="B638">
-        <v>208078.66</v>
+        <v>228788.297</v>
       </c>
       <c r="C638">
         <v>17423.789</v>
@@ -86162,7 +86162,7 @@
         <v>61</v>
       </c>
       <c r="B639">
-        <v>217558.946</v>
+        <v>240276.994</v>
       </c>
       <c r="C639">
         <v>21676.293</v>
@@ -86296,7 +86296,7 @@
         <v>62</v>
       </c>
       <c r="B640">
-        <v>241559.658</v>
+        <v>265146.146</v>
       </c>
       <c r="C640">
         <v>24260.567</v>
@@ -86430,7 +86430,7 @@
         <v>63</v>
       </c>
       <c r="B641">
-        <v>262164.581</v>
+        <v>284588.975</v>
       </c>
       <c r="C641">
         <v>26594.46</v>
